--- a/trunk/Doc/电车管理接口说明.xlsx
+++ b/trunk/Doc/电车管理接口说明.xlsx
@@ -4,23 +4,26 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715" tabRatio="695" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="用户操作" sheetId="2" r:id="rId1"/>
     <sheet name="维修店" sheetId="4" r:id="rId2"/>
-    <sheet name="电车店铺" sheetId="10" r:id="rId3"/>
-    <sheet name="类别获取" sheetId="3" r:id="rId4"/>
-    <sheet name="android版本更新" sheetId="8" r:id="rId5"/>
-    <sheet name="文件图片" sheetId="9" r:id="rId6"/>
-    <sheet name="说明" sheetId="11" r:id="rId7"/>
+    <sheet name="便民服务" sheetId="12" r:id="rId3"/>
+    <sheet name="电车店铺" sheetId="10" r:id="rId4"/>
+    <sheet name="车辆" sheetId="14" r:id="rId5"/>
+    <sheet name="交易信息（车辆，物品等）" sheetId="15" r:id="rId6"/>
+    <sheet name="类别获取" sheetId="3" r:id="rId7"/>
+    <sheet name="android版本更新" sheetId="8" r:id="rId8"/>
+    <sheet name="文件图片" sheetId="9" r:id="rId9"/>
+    <sheet name="说明" sheetId="11" r:id="rId10"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="130">
   <si>
     <t>功能说明</t>
   </si>
@@ -47,42 +50,6 @@
   </si>
   <si>
     <t>Login</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">UserName </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">用户名
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Pwd</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>密码</t>
-    </r>
   </si>
   <si>
     <r>
@@ -144,9 +111,6 @@
     <t>Register</t>
   </si>
   <si>
-    <t>{"jsonEntity":{"UserName":"admin","Pwd":"123456"},"action":"Register"}</t>
-  </si>
-  <si>
     <r>
       <t>{
   "Code": -13,
@@ -205,32 +169,6 @@
   </si>
   <si>
     <t>update</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>{"jsonEntity":{</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>实体</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>json},"action":"update"}</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -453,23 +391,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DictionaryHandler</t>
-  </si>
-  <si>
     <t>GetCategoryByParent</t>
-  </si>
-  <si>
-    <t>获取子集的类别</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"jsonEntity":{"Category":"03"},"action":"GetCategoryByParent"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/httpSever/DictionaryHandler.ashx?json=
-{"jsonEntity":{"Category":"03"},"action":"GetCategoryByParent"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -630,11 +552,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/httpSever/File_tbHandler.ashx?
-json={"jsonEntity":{"Id":"66011622-b521-4208-a57e-17939aad3154"},"action":"GetFileById"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>{
   "Code": 11,
@@ -820,11 +737,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"jsonEntity":{"Category":"01","minKM":"0","MaxKM":"720",
-"Longitude":"103.25","Latitude":"24.33"},"action":"GetByDistances"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Category:类别值
 Longitude：经度
 Latitude：纬度
@@ -1038,14 +950,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>File_tbHandler</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>File_tbHandler</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>{
   "Code": 11,
@@ -1332,10 +1236,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http上传图片或者文件,（直接post文件）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>上传图片或者文件（转换成Base64）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1350,18 +1250,6 @@
   </si>
   <si>
     <t>HttpUploadFile</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/httpSever/File_tbHandler.ashx?
-json={"jsonEntity":{{"BtyeString":"","ToId":"","ShowName":"",
-"FileName":"","SourceTable":"","FileType":""}},"action":"HttpUploadFile"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/httpSever/File_tbHandler.ashx?
-json={"jsonEntity":{{"BtyeString":"","ToId":"","ShowName":"",
-"FileName":"","SourceTable":"","FileType":""}},"action":"UploadFileBase64"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1668,11 +1556,6 @@
     <t xml:space="preserve"> /httpSever/TS_RepairShopHandler.ashx?json={"jsonEntity":{"UserId":"1a9f2358-b945-41ec-9e79-e1aae159756f"},"action":"GetByUserId"}</t>
   </si>
   <si>
-    <t>/httpSever/TS_RepairShopHandler.ashx?json=
-{"jsonEntity":{"Category":"01","minKM":"0","MaxKM":"720",
-"Longitude":"103.25","Latitude":"24.33"},"action":"GetByDistances"}</t>
-  </si>
-  <si>
     <t>{"jsonEntity":{"Category":"06","Longitude":"110.22587","Latitude":"25.272585"},
 "pageIndex":"1","pageSize":"20","action":"GetByCategory"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1714,11 +1597,6 @@
     <t xml:space="preserve"> /httpSever/TS_ShopHandler.ashx?json={"jsonEntity":{"UserId":"1a9f2358-b945-41ec-9e79-e1aae159756f"},"action":"GetByUserId"}</t>
   </si>
   <si>
-    <t>/httpSever/TS_ShopHandler.ashx?json=
-{"jsonEntity":{"Category":"01","minKM":"0","MaxKM":"720",
-"Longitude":"103.25","Latitude":"24.33"},"action":"GetByDistances"}</t>
-  </si>
-  <si>
     <t>{"jsonEntity":{"Category":"05","Longitude":"110.22587","Latitude":"25.272585"},
 "pageIndex":"1","pageSize":"20","action":"GetByCategory"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1734,8 +1612,762 @@
     <t>TS_ClientUserHandler</t>
   </si>
   <si>
-    <t>/httpSever/TS_ClientUserHandler.ashx?json=
-{"jsonEntity":{"UserName":"admin","Pwd":"123456"},"action":"Register"}</t>
+    <t>更新时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015.12.11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ld</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">UserName </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">用户名
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Pwd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">密码
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">UserName </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">用户名
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Pwd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">密码
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">NickName </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>昵称</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{"jsonEntity":{"UserName":"admin","NickName":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>小帅</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","Pwd":"123456"},"action":"Register"}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>/httpSever/TS_ClientUserHandler.ashx?json=
+{"jsonEntity":{"UserName":"admin","NickName":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>小帅</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","Pwd":"123456"},"action":"Register"}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在前端判断，旧密码是否正确</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"jsonEntity":{"Category":"01","minKM":"0","maxKM":"720",
+"Longitude":"103.25","Latitude":"24.33"},"action":"GetByDistances"}</t>
+  </si>
+  <si>
+    <t>/httpSever/TS_RepairShopHandler.ashx?json=
+{"jsonEntity":{"Category":"01","minKM":"0","maxKM":"720",
+"Longitude":"103.25","Latitude":"24.33"},"action":"GetByDistances"}</t>
+  </si>
+  <si>
+    <t>/httpSever/TS_ShopHandler.ashx?json=
+{"jsonEntity":{"Category":"01","minKM":"0","maxKM":"720",
+"Longitude":"103.25","Latitude":"24.33"},"action":"GetByDistances"}</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>根据父级</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>获取下一层的子集</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取所有的子集的类别（包括子子子集）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DictionaryHandler</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DictionaryHandler</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetSonbyParentId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"jsonEntity":{"Category":"03"},"action":"GetCategoryByParent"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"jsonEntity":{"ParentId":"463e0950-dfba-46a1-8086-c4cbb4186278"},
+"action":"GetSonbyParentId"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ParentId </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>父级</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Id</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/httpSever/DictionaryHandler.ashx?json=
+{"jsonEntity":{"Category":"03"},"action":"GetCategoryByParent"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{
+  "Code": 11,
+  "Msg": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>获取成功</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>",
+  "Data": "{}"
+}{
+  "Code": 0,
+  "Msg": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>没有数据</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>",
+  "Data": "[]"
+}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/httpSever/DictionaryHandler.ashx?json=
+{"jsonEntity":{"ParentId":"463e0950-dfba-46a1-8086-c4cbb4186278"},
+"action":"GetSonbyParentId"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TS_ServiceHandler</t>
+  </si>
+  <si>
+    <t>/httpSever/TS_ServiceHandler.ashx?
+json={"jsonEntity":{"Category":"05","Longitude":"110.22587",
+"Latitude":"25.272585"},"pageIndex":"1","pageSize":"20",
+"action":"GetByCategory"}</t>
+  </si>
+  <si>
+    <t>/httpSever/TS_ServiceHandler.ashx?
+json={"jsonEntity":{"KeyWords":""},"pageIndex":"1","pageSize":"20",
+"action":"SearhByKeyWords"}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> /httpSever/TS_ServiceHandler.ashx?json={"jsonEntity":{"UserId":"1a9f2358-b945-41ec-9e79-e1aae159756f"},"action":"GetByUserId"}</t>
+  </si>
+  <si>
+    <t>/httpSever/TS_ServiceHandler.ashx?json=
+{"jsonEntity":{"Category":"01","minKM":"0","maxKM":"720",
+"Longitude":"103.25","Latitude":"24.33"},"action":"GetByDistances"}</t>
+  </si>
+  <si>
+    <t>Searh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据店铺分类 
+分页获取数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TS_CarHandler</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TS_CarHandler</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/httpSever/TS_CarHandler.ashx?
+json={"jsonEntity":{"Category":"08","ShopId":"d6807c66-c4fb-4350-83fd-afd19cb82693"},
+"pageIndex":"1","pageSize":"20","action":"Searh"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"jsonEntity":{"Category":"08","ShopId":"d6807c66-c4fb-4350-83fd-afd19cb82693"},
+"pageIndex":"1","pageSize":"20","action":"Searh"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Category:类别值  不分类可以不传这个参数，如果传一定要赋值
+ShopId：店铺Id
+pageIndex：页数
+pageSize：每页数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TS_TransactionHandler</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Category </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>类别</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>01XX</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">minKM </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>最小距离</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">千米
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">minKM </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>最大距离</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>千米（为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">时不设置最大值）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Longitude</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">：经度
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Latitude</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：纬度</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">查找信息，可以根据不同的条件查找
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>注意：不传经纬度，没有距离排序，也没有按距离查找，传最大最小距离后分页无效。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>每个参数，都不是一定要传</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+Category:类别值  不分类可以不传这个参数，如果传一定要赋值
+KeyWords 关键词
+MinPrice 最小价格
+MaxPrice 最大价格
+minKM 最小距离 千米
+minKM 最大距离 千米（为0时不设置最大值）
+Longitude：经度
+Latitude：纬度
+pageIndex：页数
+pageSize：每页数量
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（每个参数，都不是一定要传，看需要）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{"jsonEntity":{"Category":"09","KeyWords":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>车</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","MinPrice":"100","Longitude":"110.22587","Latitude":"25.272585"},"pageIndex":"1","pageSize":"20","action":"Searh"}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/httpSever/TS_TransactionHandler.ashx?
+json={"jsonEntity":{"Category":"08","ShopId":"d6807c66-c4fb-4350-83fd-afd19cb82693"},
+"pageIndex":"1","pageSize":"20","action":"Searh"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>File_ImageHandler</t>
+  </si>
+  <si>
+    <t>/httpSever/File_ImageHandler.ashx?
+json={"jsonEntity":{"Id":"66011622-b521-4208-a57e-17939aad3154"},"action":"GetFileById"}</t>
+  </si>
+  <si>
+    <t>/httpSever/File_ImageHandler.ashx?
+json={"jsonEntity":{{"BtyeString":"","ToId":"","ShowName":"",
+"FileName":"","SourceTable":"","FileType":""}},"action":"UploadFileBase64"}</t>
+  </si>
+  <si>
+    <t>/httpSever/File_ImageHandler.ashx?
+json={"jsonEntity":{{"BtyeString":"","ToId":"","ShowName":"",
+"FileName":"","SourceTable":"","FileType":""}},"action":"HttpUploadFile"}</t>
+  </si>
+  <si>
+    <r>
+      <t>{"jsonEntity":{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>实体</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>json},"action":"update"}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{"jsonEntity":{"UserName":"admin"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,"Pwd":"123456"},"action":"Login"}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>/httpSever/TS_ClientUserHandler.ashx?json=
@@ -1743,106 +2375,77 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>File_tbHandler</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>{"jsonEntity":{"UserName":"admin","NickName":"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>小帅</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>","Pwd":"123456"},"action":"Login"}</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>更新时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2015.12.11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>更新人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ld</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">UserName </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">用户名
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Pwd</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">密码
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">NickName </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>昵称</t>
+    <t>http上传图片或者文件,（直接post文件）要绑定文章Id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纯上传图片，返回路径。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HttpUploadImg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>File_ImageHandler</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{"jsonEntity":{},"action":"HttpUploadImg"}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>附加</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> context.Request.Files</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>多个文件返回路径以</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'|'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>隔开</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1851,7 +2454,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1868,6 +2471,20 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -2238,8 +2855,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2284,87 +2901,130 @@
         <v>7</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>95</v>
+        <v>122</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>93</v>
+        <v>123</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" ht="133.5" customHeight="1">
       <c r="A3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="G3" s="8" t="s">
         <v>12</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>14</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9" s="10" customFormat="1" ht="144.75" customHeight="1">
       <c r="A4" s="13" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>17</v>
+        <v>121</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="G4" s="16" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:9" s="10" customFormat="1" ht="144.75" customHeight="1">
       <c r="A5" s="13" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="D5" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="21" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="E5" s="17"/>
-      <c r="G5" s="16" t="s">
-        <v>78</v>
+      <c r="B2" s="10" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -2378,8 +3038,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2419,114 +3079,114 @@
     </row>
     <row r="2" spans="1:7" ht="129.75" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="144.75" customHeight="1">
       <c r="A3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="8" t="s">
         <v>19</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="144" customHeight="1">
       <c r="A4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>27</v>
-      </c>
       <c r="E4" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="G4" s="16" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="10" customFormat="1" ht="129.75" customHeight="1">
       <c r="A5" s="17" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="G5" s="16" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="10" customFormat="1" ht="133.5" customHeight="1">
       <c r="A6" s="17" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -2540,8 +3200,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2581,114 +3241,114 @@
     </row>
     <row r="2" spans="1:7" ht="129.75" customHeight="1">
       <c r="A2" s="17" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="144.75" customHeight="1">
       <c r="A3" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="16" t="s">
         <v>19</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="16" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="144" customHeight="1">
       <c r="A4" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>27</v>
-      </c>
       <c r="E4" s="17" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="G4" s="16" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="129.75" customHeight="1">
       <c r="A5" s="17" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="G5" s="16" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="133.5" customHeight="1">
       <c r="A6" s="17" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="B6" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="C6" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>56</v>
-      </c>
       <c r="E6" s="16" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -2700,18 +3360,366 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView topLeftCell="D4" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="28" style="10" customWidth="1"/>
+    <col min="2" max="2" width="23.5" style="10" customWidth="1"/>
+    <col min="3" max="3" width="16.5" style="10" customWidth="1"/>
+    <col min="4" max="4" width="68.25" style="10" customWidth="1"/>
+    <col min="5" max="5" width="29.125" style="10" customWidth="1"/>
+    <col min="6" max="6" width="53.75" style="10" customWidth="1"/>
+    <col min="7" max="7" width="65.125" style="10" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="129.75" customHeight="1">
+      <c r="A2" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="144.75" customHeight="1">
+      <c r="A3" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="144" customHeight="1">
+      <c r="A4" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="129.75" customHeight="1">
+      <c r="A5" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="133.5" customHeight="1">
+      <c r="A6" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="28" style="10" customWidth="1"/>
+    <col min="2" max="2" width="23.5" style="10" customWidth="1"/>
+    <col min="3" max="3" width="16.5" style="10" customWidth="1"/>
+    <col min="4" max="4" width="68.25" style="10" customWidth="1"/>
+    <col min="5" max="5" width="29.125" style="10" customWidth="1"/>
+    <col min="6" max="6" width="53.75" style="10" customWidth="1"/>
+    <col min="7" max="7" width="65.125" style="10" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="129.75" customHeight="1">
+      <c r="A2" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="144.75" customHeight="1">
+      <c r="A3" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="28" style="10" customWidth="1"/>
+    <col min="2" max="2" width="23.5" style="10" customWidth="1"/>
+    <col min="3" max="3" width="16.5" style="10" customWidth="1"/>
+    <col min="4" max="4" width="68.25" style="10" customWidth="1"/>
+    <col min="5" max="5" width="29.125" style="10" customWidth="1"/>
+    <col min="6" max="6" width="53.75" style="10" customWidth="1"/>
+    <col min="7" max="7" width="65.125" style="10" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="288.75" customHeight="1">
+      <c r="A2" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="144.75" customHeight="1">
+      <c r="A3" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="16.125" customWidth="1"/>
-    <col min="2" max="2" width="17.625" customWidth="1"/>
+    <col min="1" max="1" width="34" customWidth="1"/>
+    <col min="2" max="2" width="20.75" customWidth="1"/>
     <col min="3" max="3" width="19.625" customWidth="1"/>
-    <col min="4" max="4" width="58.75" customWidth="1"/>
+    <col min="4" max="4" width="66.875" customWidth="1"/>
     <col min="5" max="5" width="40.875" customWidth="1"/>
     <col min="6" max="6" width="46.25" customWidth="1"/>
     <col min="7" max="7" width="51.875" customWidth="1"/>
@@ -2743,26 +3751,49 @@
       <c r="I1" s="3"/>
     </row>
     <row r="2" spans="1:9" s="2" customFormat="1" ht="149.25" customHeight="1">
-      <c r="A2" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>30</v>
+      <c r="A2" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>90</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>93</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>34</v>
+        <v>29</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>96</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>48</v>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="128.25">
+      <c r="A3" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -2772,7 +3803,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -2817,25 +3848,25 @@
     </row>
     <row r="2" spans="1:9" ht="142.5">
       <c r="A2" s="13" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
@@ -2846,17 +3877,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="43.625" style="10" customWidth="1"/>
+    <col min="1" max="1" width="51.375" style="10" customWidth="1"/>
     <col min="2" max="2" width="17.125" style="10" customWidth="1"/>
     <col min="3" max="3" width="20.875" style="10" customWidth="1"/>
     <col min="4" max="4" width="63" style="10" customWidth="1"/>
@@ -2893,113 +3924,92 @@
     </row>
     <row r="2" spans="1:9" ht="128.25">
       <c r="A2" s="13" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>60</v>
+        <v>117</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>47</v>
+        <v>118</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="128.25">
       <c r="A3" s="13" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>61</v>
+        <v>117</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>70</v>
+        <v>119</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="128.25">
       <c r="A4" s="13" t="s">
-        <v>64</v>
+        <v>124</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>94</v>
+        <v>127</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>69</v>
+        <v>120</v>
       </c>
       <c r="G4" s="16" t="s">
-        <v>62</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <cols>
-    <col min="1" max="1" width="21" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>99</v>
-      </c>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="E8" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/trunk/Doc/电车管理接口说明.xlsx
+++ b/trunk/Doc/电车管理接口说明.xlsx
@@ -1,29 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715" tabRatio="695" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715"/>
   </bookViews>
   <sheets>
     <sheet name="用户操作" sheetId="2" r:id="rId1"/>
     <sheet name="维修店" sheetId="4" r:id="rId2"/>
-    <sheet name="便民服务" sheetId="12" r:id="rId3"/>
-    <sheet name="电车店铺" sheetId="10" r:id="rId4"/>
-    <sheet name="车辆" sheetId="14" r:id="rId5"/>
-    <sheet name="交易信息（车辆，物品等）" sheetId="15" r:id="rId6"/>
-    <sheet name="类别获取" sheetId="3" r:id="rId7"/>
-    <sheet name="android版本更新" sheetId="8" r:id="rId8"/>
-    <sheet name="文件图片" sheetId="9" r:id="rId9"/>
-    <sheet name="说明" sheetId="11" r:id="rId10"/>
+    <sheet name="类别获取" sheetId="3" r:id="rId3"/>
+    <sheet name="android版本更新" sheetId="8" r:id="rId4"/>
+    <sheet name="文件图片" sheetId="9" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="90">
   <si>
     <t>功能说明</t>
   </si>
@@ -49,7 +44,53 @@
     <t>登录</t>
   </si>
   <si>
+    <t>ClientUserHandler</t>
+  </si>
+  <si>
     <t>Login</t>
+  </si>
+  <si>
+    <t>{"jsonEntity":{"UserName":"admin","Pwd":"123456"},"action":"Login"}</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">UserName </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">用户名
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Pwd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>密码</t>
+    </r>
+  </si>
+  <si>
+    <t>/httpSever/ClientUserHandler.ashx?json=
+{"jsonEntity":{"UserName":"admin","Pwd":"123456"},"action":"Login"}</t>
   </si>
   <si>
     <r>
@@ -111,6 +152,13 @@
     <t>Register</t>
   </si>
   <si>
+    <t>{"jsonEntity":{"UserName":"admin","Pwd":"123456"},"action":"Register"}</t>
+  </si>
+  <si>
+    <t>/httpSever/ClientUserHandler.ashx?json=
+{"jsonEntity":{"UserName":"admin","Pwd":"123456"},"action":"Register"}</t>
+  </si>
+  <si>
     <r>
       <t>{
   "Code": -13,
@@ -169,6 +217,32 @@
   </si>
   <si>
     <t>update</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{"jsonEntity":{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>实体</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>json},"action":"update"}</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -391,7 +465,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>DictionaryHandler</t>
+  </si>
+  <si>
     <t>GetCategoryByParent</t>
+  </si>
+  <si>
+    <t>获取子集的类别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"jsonEntity":{"Category":"03"},"action":"GetCategoryByParent"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/httpSever/DictionaryHandler.ashx?json=
+{"jsonEntity":{"Category":"03"},"action":"GetCategoryByParent"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -462,6 +552,10 @@
       <t>类别值</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"jsonEntity":{"Category":"01","Longitude":"110.22587","Latitude":"25.272585"},
+"pageIndex":"1","pageSize":"20","action":"GetByCategory"}</t>
   </si>
   <si>
     <t>更新版本</t>
@@ -552,6 +646,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>/httpSever/File_tbHandler.ashx?
+json={"jsonEntity":{"Id":"66011622-b521-4208-a57e-17939aad3154"},"action":"GetFileById"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t>{
   "Code": 11,
@@ -620,6 +719,10 @@
   <si>
     <t xml:space="preserve">UserId:用户Id
 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ClientUserHandler</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -737,6 +840,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>{"jsonEntity":{"Category":"01","minKM":"0","MaxKM":"720",
+"Longitude":"103.25","Latitude":"24.33"},"action":"GetByDistances"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Category:类别值
 Longitude：经度
 Latitude：纬度
@@ -950,6 +1058,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>File_tbHandler</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>File_tbHandler</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t>{
   "Code": 11,
@@ -1236,6 +1352,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>http上传图片或者文件,（直接post文件）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>上传图片或者文件（转换成Base64）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1250,6 +1370,18 @@
   </si>
   <si>
     <t>HttpUploadFile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/httpSever/File_tbHandler.ashx?
+json={"jsonEntity":{{"BtyeString":"","ToId":"","ShowName":"",
+"FileName":"","SourceTable":"","FileType":""}},"action":"HttpUploadFile"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/httpSever/File_tbHandler.ashx?
+json={"jsonEntity":{{"BtyeString":"","ToId":"","ShowName":"",
+"FileName":"","SourceTable":"","FileType":""}},"action":"UploadFileBase64"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1553,908 +1685,30 @@
     <t>TS_RepairShopHandler</t>
   </si>
   <si>
-    <t xml:space="preserve"> /httpSever/TS_RepairShopHandler.ashx?json={"jsonEntity":{"UserId":"1a9f2358-b945-41ec-9e79-e1aae159756f"},"action":"GetByUserId"}</t>
-  </si>
-  <si>
-    <t>{"jsonEntity":{"Category":"06","Longitude":"110.22587","Latitude":"25.272585"},
-"pageIndex":"1","pageSize":"20","action":"GetByCategory"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/httpSever/TS_RepairShopHandler.ashx?
-json={"jsonEntity":{"Category":"06","Longitude":"110.22587",
+json={"jsonEntity":{"Category":"01","Longitude":"110.22587",
 "Latitude":"25.272585"},"pageIndex":"1","pageSize":"20",
 "action":"GetByCategory"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>/httpSever/TS_RepairShopHandler.ashx?
-json={"jsonEntity":{"KeyWords":"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>"},"pageIndex":"1","pageSize":"20",
+  </si>
+  <si>
+    <t>/httpSever/TS_RepairShopHandler.ashx?
+json={"jsonEntity":{"KeyWords":"农机"},"pageIndex":"1","pageSize":"20",
 "action":"SearhByKeyWords"}</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TS_ShopHandler</t>
-  </si>
-  <si>
-    <t>/httpSever/TS_ShopHandler.ashx?
-json={"jsonEntity":{"KeyWords":""},"pageIndex":"1","pageSize":"20",
-"action":"SearhByKeyWords"}</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> /httpSever/TS_ShopHandler.ashx?json={"jsonEntity":{"UserId":"1a9f2358-b945-41ec-9e79-e1aae159756f"},"action":"GetByUserId"}</t>
-  </si>
-  <si>
-    <t>{"jsonEntity":{"Category":"05","Longitude":"110.22587","Latitude":"25.272585"},
-"pageIndex":"1","pageSize":"20","action":"GetByCategory"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/httpSever/TS_ShopHandler.ashx?
-json={"jsonEntity":{"Category":"05","Longitude":"110.22587",
-"Latitude":"25.272585"},"pageIndex":"1","pageSize":"20",
-"action":"GetByCategory"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TS_ClientUserHandler</t>
-  </si>
-  <si>
-    <t>更新时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2015.12.11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>更新人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ld</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">UserName </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">用户名
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Pwd</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">密码
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t/>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">UserName </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">用户名
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Pwd</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">密码
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">NickName </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>昵称</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>{"jsonEntity":{"UserName":"admin","NickName":"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>小帅</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>","Pwd":"123456"},"action":"Register"}</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>/httpSever/TS_ClientUserHandler.ashx?json=
-{"jsonEntity":{"UserName":"admin","NickName":"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>小帅</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>","Pwd":"123456"},"action":"Register"}</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在前端判断，旧密码是否正确</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"jsonEntity":{"Category":"01","minKM":"0","maxKM":"720",
+  </si>
+  <si>
+    <t xml:space="preserve"> /httpSever/TS_RepairShopHandler.ashx?json={"jsonEntity":{"UserId":"1a9f2358-b945-41ec-9e79-e1aae159756f"},"action":"GetByUserId"}</t>
+  </si>
+  <si>
+    <t>/httpSever/TS_RepairShopHandler.ashx?json=
+{"jsonEntity":{"Category":"01","minKM":"0","MaxKM":"720",
 "Longitude":"103.25","Latitude":"24.33"},"action":"GetByDistances"}</t>
-  </si>
-  <si>
-    <t>/httpSever/TS_RepairShopHandler.ashx?json=
-{"jsonEntity":{"Category":"01","minKM":"0","maxKM":"720",
-"Longitude":"103.25","Latitude":"24.33"},"action":"GetByDistances"}</t>
-  </si>
-  <si>
-    <t>/httpSever/TS_ShopHandler.ashx?json=
-{"jsonEntity":{"Category":"01","minKM":"0","maxKM":"720",
-"Longitude":"103.25","Latitude":"24.33"},"action":"GetByDistances"}</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>根据父级</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Id</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>获取下一层的子集</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取所有的子集的类别（包括子子子集）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DictionaryHandler</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DictionaryHandler</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GetSonbyParentId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"jsonEntity":{"Category":"03"},"action":"GetCategoryByParent"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"jsonEntity":{"ParentId":"463e0950-dfba-46a1-8086-c4cbb4186278"},
-"action":"GetSonbyParentId"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">ParentId </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>父级</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Id</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/httpSever/DictionaryHandler.ashx?json=
-{"jsonEntity":{"Category":"03"},"action":"GetCategoryByParent"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>{
-  "Code": 11,
-  "Msg": "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>获取成功</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>",
-  "Data": "{}"
-}{
-  "Code": 0,
-  "Msg": "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>没有数据</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>",
-  "Data": "[]"
-}</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/httpSever/DictionaryHandler.ashx?json=
-{"jsonEntity":{"ParentId":"463e0950-dfba-46a1-8086-c4cbb4186278"},
-"action":"GetSonbyParentId"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TS_ServiceHandler</t>
-  </si>
-  <si>
-    <t>/httpSever/TS_ServiceHandler.ashx?
-json={"jsonEntity":{"Category":"05","Longitude":"110.22587",
-"Latitude":"25.272585"},"pageIndex":"1","pageSize":"20",
-"action":"GetByCategory"}</t>
-  </si>
-  <si>
-    <t>/httpSever/TS_ServiceHandler.ashx?
-json={"jsonEntity":{"KeyWords":""},"pageIndex":"1","pageSize":"20",
-"action":"SearhByKeyWords"}</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> /httpSever/TS_ServiceHandler.ashx?json={"jsonEntity":{"UserId":"1a9f2358-b945-41ec-9e79-e1aae159756f"},"action":"GetByUserId"}</t>
-  </si>
-  <si>
-    <t>/httpSever/TS_ServiceHandler.ashx?json=
-{"jsonEntity":{"Category":"01","minKM":"0","maxKM":"720",
-"Longitude":"103.25","Latitude":"24.33"},"action":"GetByDistances"}</t>
-  </si>
-  <si>
-    <t>Searh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据店铺分类 
-分页获取数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TS_CarHandler</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TS_CarHandler</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/httpSever/TS_CarHandler.ashx?
-json={"jsonEntity":{"Category":"08","ShopId":"d6807c66-c4fb-4350-83fd-afd19cb82693"},
-"pageIndex":"1","pageSize":"20","action":"Searh"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"jsonEntity":{"Category":"08","ShopId":"d6807c66-c4fb-4350-83fd-afd19cb82693"},
-"pageIndex":"1","pageSize":"20","action":"Searh"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Category:类别值  不分类可以不传这个参数，如果传一定要赋值
-ShopId：店铺Id
-pageIndex：页数
-pageSize：每页数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TS_TransactionHandler</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Category </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>类别</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>01XX</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">）
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">minKM </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>最小距离</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">千米
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">minKM </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>最大距离</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>千米（为</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">时不设置最大值）
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Longitude</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">：经度
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Latitude</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>：纬度</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">查找信息，可以根据不同的条件查找
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>注意：不传经纬度，没有距离排序，也没有按距离查找，传最大最小距离后分页无效。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>每个参数，都不是一定要传</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">
-Category:类别值  不分类可以不传这个参数，如果传一定要赋值
-KeyWords 关键词
-MinPrice 最小价格
-MaxPrice 最大价格
-minKM 最小距离 千米
-minKM 最大距离 千米（为0时不设置最大值）
-Longitude：经度
-Latitude：纬度
-pageIndex：页数
-pageSize：每页数量
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（每个参数，都不是一定要传，看需要）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>{"jsonEntity":{"Category":"09","KeyWords":"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>车</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>","MinPrice":"100","Longitude":"110.22587","Latitude":"25.272585"},"pageIndex":"1","pageSize":"20","action":"Searh"}</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/httpSever/TS_TransactionHandler.ashx?
-json={"jsonEntity":{"Category":"08","ShopId":"d6807c66-c4fb-4350-83fd-afd19cb82693"},
-"pageIndex":"1","pageSize":"20","action":"Searh"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>File_ImageHandler</t>
-  </si>
-  <si>
-    <t>/httpSever/File_ImageHandler.ashx?
-json={"jsonEntity":{"Id":"66011622-b521-4208-a57e-17939aad3154"},"action":"GetFileById"}</t>
-  </si>
-  <si>
-    <t>/httpSever/File_ImageHandler.ashx?
-json={"jsonEntity":{{"BtyeString":"","ToId":"","ShowName":"",
-"FileName":"","SourceTable":"","FileType":""}},"action":"UploadFileBase64"}</t>
-  </si>
-  <si>
-    <t>/httpSever/File_ImageHandler.ashx?
-json={"jsonEntity":{{"BtyeString":"","ToId":"","ShowName":"",
-"FileName":"","SourceTable":"","FileType":""}},"action":"HttpUploadFile"}</t>
-  </si>
-  <si>
-    <r>
-      <t>{"jsonEntity":{</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>实体</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>json},"action":"update"}</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>{"jsonEntity":{"UserName":"admin"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>,"Pwd":"123456"},"action":"Login"}</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/httpSever/TS_ClientUserHandler.ashx?json=
-{"jsonEntity":{"UserName":"admin","Pwd":"123456"},"action":"Login"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http上传图片或者文件,（直接post文件）要绑定文章Id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>纯上传图片，返回路径。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HttpUploadImg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>File_ImageHandler</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>{"jsonEntity":{},"action":"HttpUploadImg"}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>附加</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> context.Request.Files</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>多个文件返回路径以</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>'|'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>隔开</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2471,20 +1725,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF00B0F0"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -2557,14 +1797,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -2855,8 +2087,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2900,137 +2132,93 @@
       <c r="A2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>75</v>
+      <c r="B2" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="E2" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>123</v>
+        <v>9</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>12</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" ht="133.5" customHeight="1">
       <c r="A3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>75</v>
+        <v>14</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="E3" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="F3" s="16" t="s">
-        <v>83</v>
+      <c r="F3" s="8" t="s">
+        <v>17</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9" s="10" customFormat="1" ht="144.75" customHeight="1">
       <c r="A4" s="13" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>121</v>
+        <v>21</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="G4" s="16" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:9" s="10" customFormat="1" ht="144.75" customHeight="1">
       <c r="A5" s="13" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="E5" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="E5" s="17"/>
+      <c r="G5" s="16" t="s">
         <v>84</v>
-      </c>
-      <c r="G5" s="16" t="s">
-        <v>64</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <cols>
-    <col min="1" max="1" width="21" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>79</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
@@ -3038,11 +2226,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="28" style="2" customWidth="1"/>
     <col min="2" max="2" width="23.5" style="2" customWidth="1"/>
@@ -3079,114 +2267,114 @@
     </row>
     <row r="2" spans="1:7" ht="129.75" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>67</v>
+        <v>19</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>41</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="144.75" customHeight="1">
       <c r="A3" s="5" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="144" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="G4" s="16" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="10" customFormat="1" ht="129.75" customHeight="1">
       <c r="A5" s="17" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="G5" s="16" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="10" customFormat="1" ht="133.5" customHeight="1">
       <c r="A6" s="17" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -3198,157 +2386,69 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="28" style="10" customWidth="1"/>
-    <col min="2" max="2" width="23.5" style="10" customWidth="1"/>
-    <col min="3" max="3" width="16.5" style="10" customWidth="1"/>
-    <col min="4" max="4" width="68.25" style="10" customWidth="1"/>
-    <col min="5" max="5" width="29.125" style="10" customWidth="1"/>
-    <col min="6" max="6" width="53.75" style="10" customWidth="1"/>
-    <col min="7" max="7" width="65.125" style="10" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="10"/>
+    <col min="1" max="1" width="16.125" customWidth="1"/>
+    <col min="2" max="2" width="17.625" customWidth="1"/>
+    <col min="3" max="3" width="19.625" customWidth="1"/>
+    <col min="4" max="4" width="58.75" customWidth="1"/>
+    <col min="5" max="5" width="40.875" customWidth="1"/>
+    <col min="6" max="6" width="46.25" customWidth="1"/>
+    <col min="7" max="7" width="51.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:9" s="2" customFormat="1">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="7"/>
+      <c r="I1" s="3"/>
     </row>
-    <row r="2" spans="1:7" ht="129.75" customHeight="1">
-      <c r="A2" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>100</v>
+    <row r="2" spans="1:9" s="2" customFormat="1" ht="149.25" customHeight="1">
+      <c r="A2" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>38</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="144.75" customHeight="1">
-      <c r="A3" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="16" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="144" customHeight="1">
-      <c r="A4" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="G4" s="16" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="129.75" customHeight="1">
-      <c r="A5" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="E5" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="G5" s="16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="133.5" customHeight="1">
-      <c r="A6" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="F6" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="G6" s="16" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -3359,451 +2459,6 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G6"/>
-  <sheetViews>
-    <sheetView topLeftCell="D4" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
-  <cols>
-    <col min="1" max="1" width="28" style="10" customWidth="1"/>
-    <col min="2" max="2" width="23.5" style="10" customWidth="1"/>
-    <col min="3" max="3" width="16.5" style="10" customWidth="1"/>
-    <col min="4" max="4" width="68.25" style="10" customWidth="1"/>
-    <col min="5" max="5" width="29.125" style="10" customWidth="1"/>
-    <col min="6" max="6" width="53.75" style="10" customWidth="1"/>
-    <col min="7" max="7" width="65.125" style="10" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="10"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="129.75" customHeight="1">
-      <c r="A2" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="G2" s="16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="144.75" customHeight="1">
-      <c r="A3" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="16" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="144" customHeight="1">
-      <c r="A4" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="G4" s="16" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="129.75" customHeight="1">
-      <c r="A5" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="E5" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="G5" s="16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="133.5" customHeight="1">
-      <c r="A6" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="F6" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="G6" s="16" t="s">
-        <v>46</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
-  <cols>
-    <col min="1" max="1" width="28" style="10" customWidth="1"/>
-    <col min="2" max="2" width="23.5" style="10" customWidth="1"/>
-    <col min="3" max="3" width="16.5" style="10" customWidth="1"/>
-    <col min="4" max="4" width="68.25" style="10" customWidth="1"/>
-    <col min="5" max="5" width="29.125" style="10" customWidth="1"/>
-    <col min="6" max="6" width="53.75" style="10" customWidth="1"/>
-    <col min="7" max="7" width="65.125" style="10" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="10"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="129.75" customHeight="1">
-      <c r="A2" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="G2" s="16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="144.75" customHeight="1">
-      <c r="A3" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="16" t="s">
-        <v>19</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
-  <cols>
-    <col min="1" max="1" width="28" style="10" customWidth="1"/>
-    <col min="2" max="2" width="23.5" style="10" customWidth="1"/>
-    <col min="3" max="3" width="16.5" style="10" customWidth="1"/>
-    <col min="4" max="4" width="68.25" style="10" customWidth="1"/>
-    <col min="5" max="5" width="29.125" style="10" customWidth="1"/>
-    <col min="6" max="6" width="53.75" style="10" customWidth="1"/>
-    <col min="7" max="7" width="65.125" style="10" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="10"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="288.75" customHeight="1">
-      <c r="A2" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>114</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="G2" s="16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="144.75" customHeight="1">
-      <c r="A3" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="16" t="s">
-        <v>19</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <cols>
-    <col min="1" max="1" width="34" customWidth="1"/>
-    <col min="2" max="2" width="20.75" customWidth="1"/>
-    <col min="3" max="3" width="19.625" customWidth="1"/>
-    <col min="4" max="4" width="66.875" customWidth="1"/>
-    <col min="5" max="5" width="40.875" customWidth="1"/>
-    <col min="6" max="6" width="46.25" customWidth="1"/>
-    <col min="7" max="7" width="51.875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="7"/>
-      <c r="I1" s="3"/>
-    </row>
-    <row r="2" spans="1:9" s="2" customFormat="1" ht="149.25" customHeight="1">
-      <c r="A2" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="G2" s="16" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="128.25">
-      <c r="A3" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="F3" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="G3" s="16" t="s">
-        <v>97</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -3848,25 +2503,25 @@
     </row>
     <row r="2" spans="1:9" ht="142.5">
       <c r="A2" s="13" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
@@ -3877,20 +2532,20 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="51.375" style="10" customWidth="1"/>
+    <col min="1" max="1" width="43.625" style="10" customWidth="1"/>
     <col min="2" max="2" width="17.125" style="10" customWidth="1"/>
     <col min="3" max="3" width="20.875" style="10" customWidth="1"/>
-    <col min="4" max="4" width="63" style="10" customWidth="1"/>
+    <col min="4" max="4" width="75.875" style="10" customWidth="1"/>
     <col min="5" max="5" width="30.375" style="10" customWidth="1"/>
     <col min="6" max="6" width="34.875" style="10" customWidth="1"/>
     <col min="7" max="7" width="56.5" style="10" customWidth="1"/>
@@ -3924,92 +2579,72 @@
     </row>
     <row r="2" spans="1:9" ht="128.25">
       <c r="A2" s="13" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>117</v>
+        <v>66</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="D2" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" s="16" t="s">
         <v>39</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="G2" s="16" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="128.25">
       <c r="A3" s="13" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>117</v>
+        <v>67</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>119</v>
+        <v>76</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="128.25">
       <c r="A4" s="13" t="s">
-        <v>124</v>
+        <v>70</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>127</v>
+        <v>66</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>120</v>
+        <v>75</v>
       </c>
       <c r="G4" s="16" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="E8" s="13"/>
+        <v>68</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/trunk/Doc/电车管理接口说明.xlsx
+++ b/trunk/Doc/电车管理接口说明.xlsx
@@ -1,24 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715" tabRatio="695" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="用户操作" sheetId="2" r:id="rId1"/>
     <sheet name="维修店" sheetId="4" r:id="rId2"/>
-    <sheet name="类别获取" sheetId="3" r:id="rId3"/>
-    <sheet name="android版本更新" sheetId="8" r:id="rId4"/>
-    <sheet name="文件图片" sheetId="9" r:id="rId5"/>
+    <sheet name="便民服务" sheetId="12" r:id="rId3"/>
+    <sheet name="电车店铺" sheetId="10" r:id="rId4"/>
+    <sheet name="车辆" sheetId="14" r:id="rId5"/>
+    <sheet name="交易信息（车辆，物品等）" sheetId="15" r:id="rId6"/>
+    <sheet name="类别获取" sheetId="3" r:id="rId7"/>
+    <sheet name="android版本更新" sheetId="8" r:id="rId8"/>
+    <sheet name="文件图片" sheetId="9" r:id="rId9"/>
+    <sheet name="说明" sheetId="11" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="130">
   <si>
     <t>功能说明</t>
   </si>
@@ -44,53 +49,7 @@
     <t>登录</t>
   </si>
   <si>
-    <t>ClientUserHandler</t>
-  </si>
-  <si>
     <t>Login</t>
-  </si>
-  <si>
-    <t>{"jsonEntity":{"UserName":"admin","Pwd":"123456"},"action":"Login"}</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">UserName </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">用户名
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Pwd</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>密码</t>
-    </r>
-  </si>
-  <si>
-    <t>/httpSever/ClientUserHandler.ashx?json=
-{"jsonEntity":{"UserName":"admin","Pwd":"123456"},"action":"Login"}</t>
   </si>
   <si>
     <r>
@@ -152,13 +111,6 @@
     <t>Register</t>
   </si>
   <si>
-    <t>{"jsonEntity":{"UserName":"admin","Pwd":"123456"},"action":"Register"}</t>
-  </si>
-  <si>
-    <t>/httpSever/ClientUserHandler.ashx?json=
-{"jsonEntity":{"UserName":"admin","Pwd":"123456"},"action":"Register"}</t>
-  </si>
-  <si>
     <r>
       <t>{
   "Code": -13,
@@ -217,32 +169,6 @@
   </si>
   <si>
     <t>update</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>{"jsonEntity":{</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>实体</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>json},"action":"update"}</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -465,23 +391,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DictionaryHandler</t>
-  </si>
-  <si>
     <t>GetCategoryByParent</t>
-  </si>
-  <si>
-    <t>获取子集的类别</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"jsonEntity":{"Category":"03"},"action":"GetCategoryByParent"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/httpSever/DictionaryHandler.ashx?json=
-{"jsonEntity":{"Category":"03"},"action":"GetCategoryByParent"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -552,10 +462,6 @@
       <t>类别值</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"jsonEntity":{"Category":"01","Longitude":"110.22587","Latitude":"25.272585"},
-"pageIndex":"1","pageSize":"20","action":"GetByCategory"}</t>
   </si>
   <si>
     <t>更新版本</t>
@@ -646,11 +552,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/httpSever/File_tbHandler.ashx?
-json={"jsonEntity":{"Id":"66011622-b521-4208-a57e-17939aad3154"},"action":"GetFileById"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>{
   "Code": 11,
@@ -719,10 +620,6 @@
   <si>
     <t xml:space="preserve">UserId:用户Id
 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ClientUserHandler</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -840,11 +737,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"jsonEntity":{"Category":"01","minKM":"0","MaxKM":"720",
-"Longitude":"103.25","Latitude":"24.33"},"action":"GetByDistances"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Category:类别值
 Longitude：经度
 Latitude：纬度
@@ -1058,14 +950,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>File_tbHandler</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>File_tbHandler</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>{
   "Code": 11,
@@ -1352,10 +1236,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http上传图片或者文件,（直接post文件）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>上传图片或者文件（转换成Base64）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1370,18 +1250,6 @@
   </si>
   <si>
     <t>HttpUploadFile</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/httpSever/File_tbHandler.ashx?
-json={"jsonEntity":{{"BtyeString":"","ToId":"","ShowName":"",
-"FileName":"","SourceTable":"","FileType":""}},"action":"HttpUploadFile"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/httpSever/File_tbHandler.ashx?
-json={"jsonEntity":{{"BtyeString":"","ToId":"","ShowName":"",
-"FileName":"","SourceTable":"","FileType":""}},"action":"UploadFileBase64"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1685,30 +1553,908 @@
     <t>TS_RepairShopHandler</t>
   </si>
   <si>
+    <t xml:space="preserve"> /httpSever/TS_RepairShopHandler.ashx?json={"jsonEntity":{"UserId":"1a9f2358-b945-41ec-9e79-e1aae159756f"},"action":"GetByUserId"}</t>
+  </si>
+  <si>
+    <t>{"jsonEntity":{"Category":"06","Longitude":"110.22587","Latitude":"25.272585"},
+"pageIndex":"1","pageSize":"20","action":"GetByCategory"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>/httpSever/TS_RepairShopHandler.ashx?
-json={"jsonEntity":{"Category":"01","Longitude":"110.22587",
+json={"jsonEntity":{"Category":"06","Longitude":"110.22587",
 "Latitude":"25.272585"},"pageIndex":"1","pageSize":"20",
 "action":"GetByCategory"}</t>
-  </si>
-  <si>
-    <t>/httpSever/TS_RepairShopHandler.ashx?
-json={"jsonEntity":{"KeyWords":"农机"},"pageIndex":"1","pageSize":"20",
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>/httpSever/TS_RepairShopHandler.ashx?
+json={"jsonEntity":{"KeyWords":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"},"pageIndex":"1","pageSize":"20",
 "action":"SearhByKeyWords"}</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> /httpSever/TS_RepairShopHandler.ashx?json={"jsonEntity":{"UserId":"1a9f2358-b945-41ec-9e79-e1aae159756f"},"action":"GetByUserId"}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TS_ShopHandler</t>
+  </si>
+  <si>
+    <t>/httpSever/TS_ShopHandler.ashx?
+json={"jsonEntity":{"KeyWords":""},"pageIndex":"1","pageSize":"20",
+"action":"SearhByKeyWords"}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> /httpSever/TS_ShopHandler.ashx?json={"jsonEntity":{"UserId":"1a9f2358-b945-41ec-9e79-e1aae159756f"},"action":"GetByUserId"}</t>
+  </si>
+  <si>
+    <t>{"jsonEntity":{"Category":"05","Longitude":"110.22587","Latitude":"25.272585"},
+"pageIndex":"1","pageSize":"20","action":"GetByCategory"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/httpSever/TS_ShopHandler.ashx?
+json={"jsonEntity":{"Category":"05","Longitude":"110.22587",
+"Latitude":"25.272585"},"pageIndex":"1","pageSize":"20",
+"action":"GetByCategory"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TS_ClientUserHandler</t>
+  </si>
+  <si>
+    <t>更新时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015.12.11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ld</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">UserName </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">用户名
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Pwd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">密码
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">UserName </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">用户名
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Pwd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">密码
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">NickName </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>昵称</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{"jsonEntity":{"UserName":"admin","NickName":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>小帅</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","Pwd":"123456"},"action":"Register"}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>/httpSever/TS_ClientUserHandler.ashx?json=
+{"jsonEntity":{"UserName":"admin","NickName":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>小帅</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","Pwd":"123456"},"action":"Register"}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在前端判断，旧密码是否正确</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"jsonEntity":{"Category":"01","minKM":"0","maxKM":"720",
+"Longitude":"103.25","Latitude":"24.33"},"action":"GetByDistances"}</t>
   </si>
   <si>
     <t>/httpSever/TS_RepairShopHandler.ashx?json=
-{"jsonEntity":{"Category":"01","minKM":"0","MaxKM":"720",
+{"jsonEntity":{"Category":"01","minKM":"0","maxKM":"720",
 "Longitude":"103.25","Latitude":"24.33"},"action":"GetByDistances"}</t>
+  </si>
+  <si>
+    <t>/httpSever/TS_ShopHandler.ashx?json=
+{"jsonEntity":{"Category":"01","minKM":"0","maxKM":"720",
+"Longitude":"103.25","Latitude":"24.33"},"action":"GetByDistances"}</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>根据父级</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>获取下一层的子集</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取所有的子集的类别（包括子子子集）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DictionaryHandler</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DictionaryHandler</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetSonbyParentId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"jsonEntity":{"Category":"03"},"action":"GetCategoryByParent"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"jsonEntity":{"ParentId":"463e0950-dfba-46a1-8086-c4cbb4186278"},
+"action":"GetSonbyParentId"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ParentId </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>父级</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Id</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/httpSever/DictionaryHandler.ashx?json=
+{"jsonEntity":{"Category":"03"},"action":"GetCategoryByParent"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{
+  "Code": 11,
+  "Msg": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>获取成功</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>",
+  "Data": "{}"
+}{
+  "Code": 0,
+  "Msg": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>没有数据</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>",
+  "Data": "[]"
+}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/httpSever/DictionaryHandler.ashx?json=
+{"jsonEntity":{"ParentId":"463e0950-dfba-46a1-8086-c4cbb4186278"},
+"action":"GetSonbyParentId"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TS_ServiceHandler</t>
+  </si>
+  <si>
+    <t>/httpSever/TS_ServiceHandler.ashx?
+json={"jsonEntity":{"Category":"05","Longitude":"110.22587",
+"Latitude":"25.272585"},"pageIndex":"1","pageSize":"20",
+"action":"GetByCategory"}</t>
+  </si>
+  <si>
+    <t>/httpSever/TS_ServiceHandler.ashx?
+json={"jsonEntity":{"KeyWords":""},"pageIndex":"1","pageSize":"20",
+"action":"SearhByKeyWords"}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> /httpSever/TS_ServiceHandler.ashx?json={"jsonEntity":{"UserId":"1a9f2358-b945-41ec-9e79-e1aae159756f"},"action":"GetByUserId"}</t>
+  </si>
+  <si>
+    <t>/httpSever/TS_ServiceHandler.ashx?json=
+{"jsonEntity":{"Category":"01","minKM":"0","maxKM":"720",
+"Longitude":"103.25","Latitude":"24.33"},"action":"GetByDistances"}</t>
+  </si>
+  <si>
+    <t>Searh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据店铺分类 
+分页获取数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TS_CarHandler</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TS_CarHandler</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/httpSever/TS_CarHandler.ashx?
+json={"jsonEntity":{"Category":"08","ShopId":"d6807c66-c4fb-4350-83fd-afd19cb82693"},
+"pageIndex":"1","pageSize":"20","action":"Searh"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"jsonEntity":{"Category":"08","ShopId":"d6807c66-c4fb-4350-83fd-afd19cb82693"},
+"pageIndex":"1","pageSize":"20","action":"Searh"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Category:类别值  不分类可以不传这个参数，如果传一定要赋值
+ShopId：店铺Id
+pageIndex：页数
+pageSize：每页数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TS_TransactionHandler</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Category </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>类别</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>01XX</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">minKM </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>最小距离</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">千米
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">minKM </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>最大距离</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>千米（为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">时不设置最大值）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Longitude</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">：经度
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Latitude</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：纬度</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">查找信息，可以根据不同的条件查找
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>注意：不传经纬度，没有距离排序，也没有按距离查找，传最大最小距离后分页无效。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>每个参数，都不是一定要传</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+Category:类别值  不分类可以不传这个参数，如果传一定要赋值
+KeyWords 关键词
+MinPrice 最小价格
+MaxPrice 最大价格
+minKM 最小距离 千米
+minKM 最大距离 千米（为0时不设置最大值）
+Longitude：经度
+Latitude：纬度
+pageIndex：页数
+pageSize：每页数量
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（每个参数，都不是一定要传，看需要）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{"jsonEntity":{"Category":"09","KeyWords":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>车</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","MinPrice":"100","Longitude":"110.22587","Latitude":"25.272585"},"pageIndex":"1","pageSize":"20","action":"Searh"}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/httpSever/TS_TransactionHandler.ashx?
+json={"jsonEntity":{"Category":"08","ShopId":"d6807c66-c4fb-4350-83fd-afd19cb82693"},
+"pageIndex":"1","pageSize":"20","action":"Searh"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>File_ImageHandler</t>
+  </si>
+  <si>
+    <t>/httpSever/File_ImageHandler.ashx?
+json={"jsonEntity":{"Id":"66011622-b521-4208-a57e-17939aad3154"},"action":"GetFileById"}</t>
+  </si>
+  <si>
+    <t>/httpSever/File_ImageHandler.ashx?
+json={"jsonEntity":{{"BtyeString":"","ToId":"","ShowName":"",
+"FileName":"","SourceTable":"","FileType":""}},"action":"UploadFileBase64"}</t>
+  </si>
+  <si>
+    <t>/httpSever/File_ImageHandler.ashx?
+json={"jsonEntity":{{"BtyeString":"","ToId":"","ShowName":"",
+"FileName":"","SourceTable":"","FileType":""}},"action":"HttpUploadFile"}</t>
+  </si>
+  <si>
+    <r>
+      <t>{"jsonEntity":{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>实体</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>json},"action":"update"}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{"jsonEntity":{"UserName":"admin"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,"Pwd":"123456"},"action":"Login"}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/httpSever/TS_ClientUserHandler.ashx?json=
+{"jsonEntity":{"UserName":"admin","Pwd":"123456"},"action":"Login"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http上传图片或者文件,（直接post文件）要绑定文章Id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纯上传图片，返回路径。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HttpUploadImg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>File_ImageHandler</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{"jsonEntity":{},"action":"HttpUploadImg"}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>附加</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> context.Request.Files</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>多个文件返回路径以</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'|'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>隔开</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1725,6 +2471,20 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -1797,6 +2557,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -2087,8 +2855,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2132,93 +2900,137 @@
       <c r="A2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="G2" s="8" t="s">
         <v>9</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>13</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" ht="133.5" customHeight="1">
       <c r="A3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>75</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="8" t="s">
-        <v>17</v>
+      <c r="D3" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>83</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9" s="10" customFormat="1" ht="144.75" customHeight="1">
       <c r="A4" s="13" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>21</v>
+        <v>121</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="G4" s="16" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:9" s="10" customFormat="1" ht="144.75" customHeight="1">
       <c r="A5" s="13" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="E5" s="17"/>
+        <v>63</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>84</v>
+      </c>
       <c r="G5" s="16" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="21" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
@@ -2226,11 +3038,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="28" style="2" customWidth="1"/>
     <col min="2" max="2" width="23.5" style="2" customWidth="1"/>
@@ -2267,114 +3079,114 @@
     </row>
     <row r="2" spans="1:7" ht="129.75" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>41</v>
+        <v>13</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>67</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="144.75" customHeight="1">
       <c r="A3" s="5" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="144" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="G4" s="16" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="10" customFormat="1" ht="129.75" customHeight="1">
       <c r="A5" s="17" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="G5" s="16" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="10" customFormat="1" ht="133.5" customHeight="1">
       <c r="A6" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="C6" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="C6" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>62</v>
-      </c>
       <c r="E6" s="16" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -2386,18 +3198,528 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="28" style="10" customWidth="1"/>
+    <col min="2" max="2" width="23.5" style="10" customWidth="1"/>
+    <col min="3" max="3" width="16.5" style="10" customWidth="1"/>
+    <col min="4" max="4" width="68.25" style="10" customWidth="1"/>
+    <col min="5" max="5" width="29.125" style="10" customWidth="1"/>
+    <col min="6" max="6" width="53.75" style="10" customWidth="1"/>
+    <col min="7" max="7" width="65.125" style="10" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="129.75" customHeight="1">
+      <c r="A2" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="144.75" customHeight="1">
+      <c r="A3" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="144" customHeight="1">
+      <c r="A4" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="129.75" customHeight="1">
+      <c r="A5" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="133.5" customHeight="1">
+      <c r="A6" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView topLeftCell="D4" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="28" style="10" customWidth="1"/>
+    <col min="2" max="2" width="23.5" style="10" customWidth="1"/>
+    <col min="3" max="3" width="16.5" style="10" customWidth="1"/>
+    <col min="4" max="4" width="68.25" style="10" customWidth="1"/>
+    <col min="5" max="5" width="29.125" style="10" customWidth="1"/>
+    <col min="6" max="6" width="53.75" style="10" customWidth="1"/>
+    <col min="7" max="7" width="65.125" style="10" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="129.75" customHeight="1">
+      <c r="A2" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="144.75" customHeight="1">
+      <c r="A3" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="144" customHeight="1">
+      <c r="A4" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="129.75" customHeight="1">
+      <c r="A5" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="133.5" customHeight="1">
+      <c r="A6" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="28" style="10" customWidth="1"/>
+    <col min="2" max="2" width="23.5" style="10" customWidth="1"/>
+    <col min="3" max="3" width="16.5" style="10" customWidth="1"/>
+    <col min="4" max="4" width="68.25" style="10" customWidth="1"/>
+    <col min="5" max="5" width="29.125" style="10" customWidth="1"/>
+    <col min="6" max="6" width="53.75" style="10" customWidth="1"/>
+    <col min="7" max="7" width="65.125" style="10" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="129.75" customHeight="1">
+      <c r="A2" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="144.75" customHeight="1">
+      <c r="A3" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="28" style="10" customWidth="1"/>
+    <col min="2" max="2" width="23.5" style="10" customWidth="1"/>
+    <col min="3" max="3" width="16.5" style="10" customWidth="1"/>
+    <col min="4" max="4" width="68.25" style="10" customWidth="1"/>
+    <col min="5" max="5" width="29.125" style="10" customWidth="1"/>
+    <col min="6" max="6" width="53.75" style="10" customWidth="1"/>
+    <col min="7" max="7" width="65.125" style="10" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="288.75" customHeight="1">
+      <c r="A2" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="144.75" customHeight="1">
+      <c r="A3" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="16.125" customWidth="1"/>
-    <col min="2" max="2" width="17.625" customWidth="1"/>
+    <col min="1" max="1" width="34" customWidth="1"/>
+    <col min="2" max="2" width="20.75" customWidth="1"/>
     <col min="3" max="3" width="19.625" customWidth="1"/>
-    <col min="4" max="4" width="58.75" customWidth="1"/>
+    <col min="4" max="4" width="66.875" customWidth="1"/>
     <col min="5" max="5" width="40.875" customWidth="1"/>
     <col min="6" max="6" width="46.25" customWidth="1"/>
     <col min="7" max="7" width="51.875" customWidth="1"/>
@@ -2429,26 +3751,49 @@
       <c r="I1" s="3"/>
     </row>
     <row r="2" spans="1:9" s="2" customFormat="1" ht="149.25" customHeight="1">
-      <c r="A2" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>34</v>
+      <c r="A2" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>90</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>37</v>
+        <v>27</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>93</v>
       </c>
       <c r="E2" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="G2" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="F2" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="G2" s="16" t="s">
-        <v>53</v>
+    </row>
+    <row r="3" spans="1:9" ht="128.25">
+      <c r="A3" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -2458,7 +3803,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -2503,25 +3848,25 @@
     </row>
     <row r="2" spans="1:9" ht="142.5">
       <c r="A2" s="13" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
@@ -2532,20 +3877,20 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="43.625" style="10" customWidth="1"/>
+    <col min="1" max="1" width="51.375" style="10" customWidth="1"/>
     <col min="2" max="2" width="17.125" style="10" customWidth="1"/>
     <col min="3" max="3" width="20.875" style="10" customWidth="1"/>
-    <col min="4" max="4" width="75.875" style="10" customWidth="1"/>
+    <col min="4" max="4" width="63" style="10" customWidth="1"/>
     <col min="5" max="5" width="30.375" style="10" customWidth="1"/>
     <col min="6" max="6" width="34.875" style="10" customWidth="1"/>
     <col min="7" max="7" width="56.5" style="10" customWidth="1"/>
@@ -2579,72 +3924,92 @@
     </row>
     <row r="2" spans="1:9" ht="128.25">
       <c r="A2" s="13" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>66</v>
+        <v>117</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>52</v>
+        <v>118</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="128.25">
       <c r="A3" s="13" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>67</v>
+        <v>117</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>76</v>
+        <v>119</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="128.25">
       <c r="A4" s="13" t="s">
-        <v>70</v>
+        <v>124</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>66</v>
+        <v>127</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="G4" s="16" t="s">
-        <v>68</v>
-      </c>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="E8" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/trunk/Doc/电车管理接口说明.xlsx
+++ b/trunk/Doc/电车管理接口说明.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715" tabRatio="695" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715" tabRatio="695" firstSheet="1" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="用户操作" sheetId="2" r:id="rId1"/>
@@ -15,15 +15,16 @@
     <sheet name="交易信息（车辆，物品等）" sheetId="15" r:id="rId6"/>
     <sheet name="类别获取" sheetId="3" r:id="rId7"/>
     <sheet name="android版本更新" sheetId="8" r:id="rId8"/>
-    <sheet name="文件图片" sheetId="9" r:id="rId9"/>
-    <sheet name="说明" sheetId="11" r:id="rId10"/>
+    <sheet name="省城市区" sheetId="16" r:id="rId9"/>
+    <sheet name="文件图片" sheetId="9" r:id="rId10"/>
+    <sheet name="说明" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="131">
   <si>
     <t>功能说明</t>
   </si>
@@ -162,10 +163,6 @@
   "Data": "0c3c6089-1272-4e42-9799-01d50003cefe"
 }</t>
     </r>
-  </si>
-  <si>
-    <t>GetByCategory</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>update</t>
@@ -310,27 +307,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>搜索
-分页获取数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SearhByKeyWords</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
-KeyWords：关键词
-pageIndex：页数
-pageSize：每页数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"jsonEntity":{"KeyWords":""},
-"pageIndex":"1","pageSize":"20","action":"SearhByKeyWords"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>{
   "Code": 11,
@@ -386,11 +362,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>根据分类 
-分页获取数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>GetCategoryByParent</t>
   </si>
   <si>
@@ -606,350 +577,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>根据用户Id获取已发表信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GetByUserId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"jsonEntity":{"UserId":"1a9f2358-b945-41ec-9e79-e1aae159756f"},"action":"GetByUserId"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">UserId:用户Id
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GetByDistances</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>{
-  "Code": 11,
-  "Msg": "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>获取成功</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>",
-  "Data": "[]"
-}
-{
-  "Code": 0,
-  "Msg": "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>没有数据</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>",
-  "Data": "[]"
-}</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>{
-  "Code": 11,
-  "Msg": "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>获取成功</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>",
-  "Data": "[]"
-}
-{
-  "Code": 0,
-  "Msg": "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>没有数据</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>",
-  "Data": "[]"
-}</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Category:类别值
-Longitude：经度
-Latitude：纬度
-pageIndex：页数
-pageSize：每页数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Category </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>类别</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>01XX</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">）
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">minKM </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>最小距离</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">千米
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">minKM </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>最大距离</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>千米（为</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">时不设置最大值）
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Longitude</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">：经度
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Latitude</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>：纬度</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据坐标，类别，获取距离
-范围内的数据（地图缩放时用）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>{
   "Code": 11,
@@ -1553,70 +1180,13 @@
     <t>TS_RepairShopHandler</t>
   </si>
   <si>
-    <t xml:space="preserve"> /httpSever/TS_RepairShopHandler.ashx?json={"jsonEntity":{"UserId":"1a9f2358-b945-41ec-9e79-e1aae159756f"},"action":"GetByUserId"}</t>
-  </si>
-  <si>
-    <t>{"jsonEntity":{"Category":"06","Longitude":"110.22587","Latitude":"25.272585"},
-"pageIndex":"1","pageSize":"20","action":"GetByCategory"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/httpSever/TS_RepairShopHandler.ashx?
-json={"jsonEntity":{"Category":"06","Longitude":"110.22587",
-"Latitude":"25.272585"},"pageIndex":"1","pageSize":"20",
-"action":"GetByCategory"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>/httpSever/TS_RepairShopHandler.ashx?
-json={"jsonEntity":{"KeyWords":"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>"},"pageIndex":"1","pageSize":"20",
-"action":"SearhByKeyWords"}</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TS_ShopHandler</t>
   </si>
   <si>
-    <t>/httpSever/TS_ShopHandler.ashx?
-json={"jsonEntity":{"KeyWords":""},"pageIndex":"1","pageSize":"20",
-"action":"SearhByKeyWords"}</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> /httpSever/TS_ShopHandler.ashx?json={"jsonEntity":{"UserId":"1a9f2358-b945-41ec-9e79-e1aae159756f"},"action":"GetByUserId"}</t>
-  </si>
-  <si>
-    <t>{"jsonEntity":{"Category":"05","Longitude":"110.22587","Latitude":"25.272585"},
-"pageIndex":"1","pageSize":"20","action":"GetByCategory"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/httpSever/TS_ShopHandler.ashx?
-json={"jsonEntity":{"Category":"05","Longitude":"110.22587",
-"Latitude":"25.272585"},"pageIndex":"1","pageSize":"20",
-"action":"GetByCategory"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TS_ClientUserHandler</t>
   </si>
   <si>
     <t>更新时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2015.12.11</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1789,20 +1359,6 @@
   <si>
     <t>在前端判断，旧密码是否正确</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"jsonEntity":{"Category":"01","minKM":"0","maxKM":"720",
-"Longitude":"103.25","Latitude":"24.33"},"action":"GetByDistances"}</t>
-  </si>
-  <si>
-    <t>/httpSever/TS_RepairShopHandler.ashx?json=
-{"jsonEntity":{"Category":"01","minKM":"0","maxKM":"720",
-"Longitude":"103.25","Latitude":"24.33"},"action":"GetByDistances"}</t>
-  </si>
-  <si>
-    <t>/httpSever/TS_ShopHandler.ashx?json=
-{"jsonEntity":{"Category":"01","minKM":"0","maxKM":"720",
-"Longitude":"103.25","Latitude":"24.33"},"action":"GetByDistances"}</t>
   </si>
   <si>
     <r>
@@ -1957,25 +1513,6 @@
     <t>TS_ServiceHandler</t>
   </si>
   <si>
-    <t>/httpSever/TS_ServiceHandler.ashx?
-json={"jsonEntity":{"Category":"05","Longitude":"110.22587",
-"Latitude":"25.272585"},"pageIndex":"1","pageSize":"20",
-"action":"GetByCategory"}</t>
-  </si>
-  <si>
-    <t>/httpSever/TS_ServiceHandler.ashx?
-json={"jsonEntity":{"KeyWords":""},"pageIndex":"1","pageSize":"20",
-"action":"SearhByKeyWords"}</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> /httpSever/TS_ServiceHandler.ashx?json={"jsonEntity":{"UserId":"1a9f2358-b945-41ec-9e79-e1aae159756f"},"action":"GetByUserId"}</t>
-  </si>
-  <si>
-    <t>/httpSever/TS_ServiceHandler.ashx?json=
-{"jsonEntity":{"Category":"01","minKM":"0","maxKM":"720",
-"Longitude":"103.25","Latitude":"24.33"},"action":"GetByDistances"}</t>
-  </si>
-  <si>
     <t>Searh</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2014,202 +1551,141 @@
     <t>TS_TransactionHandler</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Category </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>类别</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>01XX</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">）
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">minKM </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>最小距离</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">千米
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">minKM </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>最大距离</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>千米（为</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">时不设置最大值）
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Longitude</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">：经度
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Latitude</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>：纬度</t>
+    <t>File_ImageHandler</t>
+  </si>
+  <si>
+    <t>/httpSever/File_ImageHandler.ashx?
+json={"jsonEntity":{"Id":"66011622-b521-4208-a57e-17939aad3154"},"action":"GetFileById"}</t>
+  </si>
+  <si>
+    <t>/httpSever/File_ImageHandler.ashx?
+json={"jsonEntity":{{"BtyeString":"","ToId":"","ShowName":"",
+"FileName":"","SourceTable":"","FileType":""}},"action":"UploadFileBase64"}</t>
+  </si>
+  <si>
+    <t>/httpSever/File_ImageHandler.ashx?
+json={"jsonEntity":{{"BtyeString":"","ToId":"","ShowName":"",
+"FileName":"","SourceTable":"","FileType":""}},"action":"HttpUploadFile"}</t>
+  </si>
+  <si>
+    <r>
+      <t>{"jsonEntity":{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>实体</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>json},"action":"update"}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{"jsonEntity":{"UserName":"admin"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,"Pwd":"123456"},"action":"Login"}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/httpSever/TS_ClientUserHandler.ashx?json=
+{"jsonEntity":{"UserName":"admin","Pwd":"123456"},"action":"Login"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http上传图片或者文件,（直接post文件）要绑定文章Id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纯上传图片，返回路径。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HttpUploadImg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>File_ImageHandler</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{"jsonEntity":{},"action":"HttpUploadImg"}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>附加</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> context.Request.Files</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>多个文件返回路径以</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'|'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>隔开</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2236,7 +1712,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>每个参数，都不是一定要传</t>
+      <t>每个参数，都不是一定要传，传了一定要赋值</t>
     </r>
     <r>
       <rPr>
@@ -2249,6 +1725,10 @@
       <t xml:space="preserve">
 </t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetByCategory</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2262,6 +1742,9 @@
 minKM 最大距离 千米（为0时不设置最大值）
 Longitude：经度
 Latitude：纬度
+ProvinceCode 省编号
+CityCode 市编号
+AreaCode 区编号
 pageIndex：页数
 pageSize：每页数量
 </t>
@@ -2274,179 +1757,176 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>（每个参数，都不是一定要传，看需要）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>{"jsonEntity":{"Category":"09","KeyWords":"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>车</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>","MinPrice":"100","Longitude":"110.22587","Latitude":"25.272585"},"pageIndex":"1","pageSize":"20","action":"Searh"}</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/httpSever/TS_TransactionHandler.ashx?
-json={"jsonEntity":{"Category":"08","ShopId":"d6807c66-c4fb-4350-83fd-afd19cb82693"},
-"pageIndex":"1","pageSize":"20","action":"Searh"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>File_ImageHandler</t>
-  </si>
-  <si>
-    <t>/httpSever/File_ImageHandler.ashx?
-json={"jsonEntity":{"Id":"66011622-b521-4208-a57e-17939aad3154"},"action":"GetFileById"}</t>
-  </si>
-  <si>
-    <t>/httpSever/File_ImageHandler.ashx?
-json={"jsonEntity":{{"BtyeString":"","ToId":"","ShowName":"",
-"FileName":"","SourceTable":"","FileType":""}},"action":"UploadFileBase64"}</t>
-  </si>
-  <si>
-    <t>/httpSever/File_ImageHandler.ashx?
-json={"jsonEntity":{{"BtyeString":"","ToId":"","ShowName":"",
-"FileName":"","SourceTable":"","FileType":""}},"action":"HttpUploadFile"}</t>
-  </si>
-  <si>
-    <r>
-      <t>{"jsonEntity":{</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>实体</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>json},"action":"update"}</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>{"jsonEntity":{"UserName":"admin"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>,"Pwd":"123456"},"action":"Login"}</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/httpSever/TS_ClientUserHandler.ashx?json=
-{"jsonEntity":{"UserName":"admin","Pwd":"123456"},"action":"Login"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http上传图片或者文件,（直接post文件）要绑定文章Id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>纯上传图片，返回路径。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HttpUploadImg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>File_ImageHandler</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>{"jsonEntity":{},"action":"HttpUploadImg"}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>附加</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> context.Request.Files</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>多个文件返回路径以</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>'|'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>隔开</t>
-    </r>
+      <t>（每个参数，都不是一定要传，看需要,传了一定要赋值）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TS_ShopHandler</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+Category:类别值  不分类可以不传这个参数，如果传一定要赋值
+KeyWords 关键词
+minKM 最小距离 千米
+minKM 最大距离 千米（为0时不设置最大值）
+Longitude：经度
+Latitude：纬度
+ProvinceCode 省编号
+CityCode 市编号
+AreaCode 区编号
+pageIndex：页数
+pageSize：每页数量
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（每个参数，都不是一定要传，看需要,传了一定要赋值）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/httpSever/TS_TransactionHandler.ashx?json={"jsonEntity":{"Category":"09","Longitude":"110.22587","Latitude":"25.272585"},"pageIndex":"1","pageSize":"20","action":"GetByCategory"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"jsonEntity":{"Category":"09","Longitude":"110.22587","Latitude":"25.272585"},"pageIndex":"1","pageSize":"20","action":"GetByCategory"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> /httpSever/TS_ShopHandler.ashx?json={"jsonEntity":{"Category":"05","CityCode":"4502","Longitude":"110.22587","Latitude":"25.272585"},"pageIndex":"1","pageSize":"20","action":"GetByCategory"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> {"jsonEntity":{"Category":"05","CityCode":"4502","Longitude":"110.22587","Latitude":"25.272585"},"pageIndex":"1","pageSize":"20","action":"GetByCategory"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TS_RepairShopHandler</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TS_ServiceHandler</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> {"jsonEntity":{"Category":"06","CityCode":"4502","Longitude":"110.22587","Latitude":"25.272585"},"pageIndex":"1","pageSize":"20","action":"GetByCategory"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> /httpSever/TS_RepairShopHandler.ashx?json={"jsonEntity":{"Category":"06","CityCode":"4502","Longitude":"110.22587","Latitude":"25.272585"},"pageIndex":"1","pageSize":"20","action":"GetByCategory"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> {"jsonEntity":{"Category":"07","CityCode":"4502","Longitude":"110.22587","Latitude":"25.272585"},"pageIndex":"1","pageSize":"20","action":"GetByCategory"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> /httpSever/TS_ServiceHandler.ashx?json={"jsonEntity":{"Category":"07","CityCode":"4502","Longitude":"110.22587","Latitude":"25.272585"},"pageIndex":"1","pageSize":"20","action":"GetByCategory"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015.12.11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015.12.15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ld</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取所有的省</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CityAreaHandler</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetProvince</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/httpSever/CityAreaHandler.ashx?json={"jsonEntity":{},"action":"GetProvince"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"jsonEntity":{},"action":"GetProvince"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取所有的市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetCity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"jsonEntity":{},"action":"GetCity"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/httpSever/CityAreaHandler.ashx?json={"jsonEntity":{},"action":"GetCity"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据省获取市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetCityByP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"jsonEntity":{"pid":"1"},"action":"GetCityByP"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/httpSever/CityAreaHandler.ashx?json={"jsonEntity":{"pid":"1"},"action":"GetCityByP"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">pid 省的id
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetAreaByC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/httpSever/CityAreaHandler.ashx?json={"jsonEntity":{"cid":"2"},"action":"GetAreaByC"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"jsonEntity":{"cid":"2"},"action":"GetAreaByC"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">cid城市的id
+</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2901,19 +2381,19 @@
         <v>7</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>122</v>
+        <v>85</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>123</v>
+        <v>86</v>
       </c>
       <c r="G2" s="8" t="s">
         <v>9</v>
@@ -2926,19 +2406,19 @@
         <v>10</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="G3" s="8" t="s">
         <v>12</v>
@@ -2948,42 +2428,42 @@
     </row>
     <row r="4" spans="1:9" s="10" customFormat="1" ht="144.75" customHeight="1">
       <c r="A4" s="13" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="C4" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="G4" s="16" t="s">
         <v>14</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="G4" s="16" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:9" s="10" customFormat="1" ht="144.75" customHeight="1">
       <c r="A5" s="13" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="G5" s="16" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -2995,10 +2475,151 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="51.375" style="10" customWidth="1"/>
+    <col min="2" max="2" width="17.125" style="10" customWidth="1"/>
+    <col min="3" max="3" width="20.875" style="10" customWidth="1"/>
+    <col min="4" max="4" width="63" style="10" customWidth="1"/>
+    <col min="5" max="5" width="30.375" style="10" customWidth="1"/>
+    <col min="6" max="6" width="34.875" style="10" customWidth="1"/>
+    <col min="7" max="7" width="56.5" style="10" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="15"/>
+      <c r="I1" s="11"/>
+    </row>
+    <row r="2" spans="1:9" ht="128.25">
+      <c r="A2" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="128.25">
+      <c r="A3" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="128.25">
+      <c r="A4" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="E8" s="13"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I39" sqref="I39:I41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3008,10 +2629,10 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="13" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="C1" s="10"/>
       <c r="D1" s="10"/>
@@ -3021,10 +2642,18 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="10" t="s">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>79</v>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -3036,10 +2665,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3077,116 +2706,47 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="129.75" customHeight="1">
-      <c r="A2" s="1" t="s">
-        <v>26</v>
+    <row r="2" spans="1:7" s="10" customFormat="1" ht="288.75" customHeight="1">
+      <c r="A2" s="17" t="s">
+        <v>93</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>13</v>
+        <v>49</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>94</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>67</v>
+        <v>104</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>48</v>
+        <v>97</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>25</v>
+        <v>105</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="144.75" customHeight="1">
       <c r="A3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="8" t="s">
+      <c r="G3" s="8" t="s">
         <v>18</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="144" customHeight="1">
-      <c r="A4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="G4" s="16" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" s="10" customFormat="1" ht="129.75" customHeight="1">
-      <c r="A5" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="E5" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="G5" s="16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" s="10" customFormat="1" ht="133.5" customHeight="1">
-      <c r="A6" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="F6" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="G6" s="16" t="s">
-        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -3198,10 +2758,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3239,116 +2799,47 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="129.75" customHeight="1">
+    <row r="2" spans="1:7" ht="288.75" customHeight="1">
       <c r="A2" s="17" t="s">
-        <v>26</v>
+        <v>93</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>99</v>
+        <v>71</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>73</v>
+        <v>106</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>48</v>
+        <v>97</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="144.75" customHeight="1">
       <c r="A3" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="16" t="s">
+      <c r="G3" s="16" t="s">
         <v>18</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="16" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="144" customHeight="1">
-      <c r="A4" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="G4" s="16" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="129.75" customHeight="1">
-      <c r="A5" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="E5" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="G5" s="16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="133.5" customHeight="1">
-      <c r="A6" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="F6" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="G6" s="16" t="s">
-        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -3360,10 +2851,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView topLeftCell="D4" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3401,117 +2892,55 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="129.75" customHeight="1">
+    <row r="2" spans="1:7" ht="288.75" customHeight="1">
       <c r="A2" s="17" t="s">
-        <v>26</v>
+        <v>93</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>73</v>
+        <v>101</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>48</v>
+        <v>97</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>74</v>
+        <v>100</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="144.75" customHeight="1">
       <c r="A3" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="16" t="s">
+      <c r="G3" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="16" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="144" customHeight="1">
-      <c r="A4" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="G4" s="16" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="129.75" customHeight="1">
-      <c r="A5" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="E5" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="G5" s="16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="133.5" customHeight="1">
-      <c r="A6" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="F6" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="G6" s="16" t="s">
-        <v>46</v>
-      </c>
+    </row>
+    <row r="4" spans="1:7" ht="133.5" customHeight="1">
+      <c r="A4" s="17"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3565,45 +2994,45 @@
     </row>
     <row r="2" spans="1:7" ht="129.75" customHeight="1">
       <c r="A2" s="17" t="s">
-        <v>105</v>
+        <v>73</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>104</v>
+        <v>72</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>109</v>
+        <v>77</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="144.75" customHeight="1">
       <c r="A3" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="16" t="s">
+      <c r="G3" s="16" t="s">
         <v>18</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="16" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -3618,7 +3047,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3658,45 +3087,45 @@
     </row>
     <row r="2" spans="1:7" ht="288.75" customHeight="1">
       <c r="A2" s="17" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="144.75" customHeight="1">
       <c r="A3" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="16" t="s">
+      <c r="G3" s="16" t="s">
         <v>18</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="16" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -3752,48 +3181,48 @@
     </row>
     <row r="2" spans="1:9" s="2" customFormat="1" ht="149.25" customHeight="1">
       <c r="A2" s="13" t="s">
-        <v>89</v>
+        <v>61</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>96</v>
+        <v>68</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="128.25">
       <c r="A3" s="10" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>95</v>
+        <v>67</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>98</v>
+        <v>70</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>97</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -3848,25 +3277,25 @@
     </row>
     <row r="2" spans="1:9" ht="142.5">
       <c r="A2" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>36</v>
-      </c>
       <c r="F2" s="16" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
@@ -3879,10 +3308,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3924,92 +3353,95 @@
     </row>
     <row r="2" spans="1:9" ht="128.25">
       <c r="A2" s="13" t="s">
-        <v>37</v>
+        <v>111</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>38</v>
+        <v>113</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>39</v>
+        <v>115</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>36</v>
+        <v>120</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="128.25">
       <c r="A3" s="13" t="s">
-        <v>53</v>
+        <v>116</v>
       </c>
       <c r="B3" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C3" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="E3" s="16" t="s">
-        <v>52</v>
+      <c r="D3" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>121</v>
       </c>
       <c r="F3" s="16" t="s">
         <v>119</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="128.25">
       <c r="A4" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="D4" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="E4" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="128.25">
+      <c r="A5" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="F4" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="G4" s="16" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>126</v>
-      </c>
       <c r="D5" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="F5" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="E5" s="10" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="E8" s="13"/>
+      <c r="G5" s="16" t="s">
+        <v>22</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/trunk/Doc/电车管理接口说明.xlsx
+++ b/trunk/Doc/电车管理接口说明.xlsx
@@ -1,30 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715" tabRatio="695" firstSheet="1" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715" tabRatio="695" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="用户操作" sheetId="2" r:id="rId1"/>
     <sheet name="维修店" sheetId="4" r:id="rId2"/>
-    <sheet name="便民服务" sheetId="12" r:id="rId3"/>
-    <sheet name="电车店铺" sheetId="10" r:id="rId4"/>
-    <sheet name="车辆" sheetId="14" r:id="rId5"/>
-    <sheet name="交易信息（车辆，物品等）" sheetId="15" r:id="rId6"/>
-    <sheet name="类别获取" sheetId="3" r:id="rId7"/>
-    <sheet name="android版本更新" sheetId="8" r:id="rId8"/>
-    <sheet name="省城市区" sheetId="16" r:id="rId9"/>
-    <sheet name="文件图片" sheetId="9" r:id="rId10"/>
-    <sheet name="说明" sheetId="11" r:id="rId11"/>
+    <sheet name="便民信息" sheetId="17" r:id="rId3"/>
+    <sheet name="便民服务" sheetId="12" r:id="rId4"/>
+    <sheet name="电车店铺" sheetId="10" r:id="rId5"/>
+    <sheet name="车辆" sheetId="14" r:id="rId6"/>
+    <sheet name="交易信息（车辆，物品等）" sheetId="15" r:id="rId7"/>
+    <sheet name="类别获取" sheetId="3" r:id="rId8"/>
+    <sheet name="android版本更新" sheetId="8" r:id="rId9"/>
+    <sheet name="省城市区" sheetId="16" r:id="rId10"/>
+    <sheet name="文件图片" sheetId="9" r:id="rId11"/>
+    <sheet name="说明" sheetId="11" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="137">
   <si>
     <t>功能说明</t>
   </si>
@@ -1927,6 +1928,655 @@
   <si>
     <t xml:space="preserve">cid城市的id
 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TS_ServiceNewHandler</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">查找信息，可以根据不同的条件查找
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>每个参数，都不是一定要传，传了一定要赋值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+Category:类别值  不分类可以不传这个参数，如果传一定要赋值
+KeyWords 关键词
+ProvinceCode 省编号
+CityCode 市编号
+AreaCode 区编号
+pageIndex：页数
+pageSize：每页数量
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（每个参数，都不是一定要传，看需要,传了一定要赋值）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> /httpSever/TS_ServiceNewHandler.ashx?json={"jsonEntity":{"Category":"01","CityCode":"45"},"pageIndex":"1","pageSize":"20","action":"GetByCategory"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> {"jsonEntity":{"Category":"01","CityCode":"45"},"pageIndex":"1","pageSize":"20","action":"GetByCategory"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{
+  "Code": 11,
+  "Msg": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>获取成功</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>",
+  "Data": "[]"
+}
+{
+  "Code": 0,
+  "Msg": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>没有数据</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>",
+  "Data": "[]"
+}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>表名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">  TS_ServiceNew
+Id </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">主键
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">TName </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">名称
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">ImageUrlMax </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">大图片
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">ImageUrl </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">图像
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">Star </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">星级
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">Phone </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">电话
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">Details </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">详情
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">Category </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">类别
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">CreateManId </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>创建人</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">Id
+ProvinceCode </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">省
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">CityCode </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">城市
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">AreaCode </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">区
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">Address </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">地址
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">CallCount </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">呼叫量
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">Praises </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">赞
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">Clicks </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">点击数
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">CreateTime </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">添加时间
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">UpdateTime </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">修改时间
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">States </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>状态（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>已审核、开启</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，未审核</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，关闭</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">isValid </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">是否有效
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">isDeleted </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>是否删除</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2475,6 +3125,150 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I5"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="51.375" style="10" customWidth="1"/>
+    <col min="2" max="2" width="17.125" style="10" customWidth="1"/>
+    <col min="3" max="3" width="20.875" style="10" customWidth="1"/>
+    <col min="4" max="4" width="63" style="10" customWidth="1"/>
+    <col min="5" max="5" width="30.375" style="10" customWidth="1"/>
+    <col min="6" max="6" width="34.875" style="10" customWidth="1"/>
+    <col min="7" max="7" width="56.5" style="10" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="15"/>
+      <c r="I1" s="11"/>
+    </row>
+    <row r="2" spans="1:9" ht="128.25">
+      <c r="A2" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="128.25">
+      <c r="A3" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="128.25">
+      <c r="A4" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="128.25">
+      <c r="A5" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2614,7 +3408,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G3"/>
   <sheetViews>
@@ -2760,6 +3554,99 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G3"/>
   <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="28" style="10" customWidth="1"/>
+    <col min="2" max="2" width="23.5" style="10" customWidth="1"/>
+    <col min="3" max="3" width="16.5" style="10" customWidth="1"/>
+    <col min="4" max="4" width="68.25" style="10" customWidth="1"/>
+    <col min="5" max="5" width="29.125" style="10" customWidth="1"/>
+    <col min="6" max="6" width="53.75" style="10" customWidth="1"/>
+    <col min="7" max="7" width="65.125" style="10" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="409.5" customHeight="1">
+      <c r="A2" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="144.75" customHeight="1">
+      <c r="A3" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
@@ -2849,7 +3736,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G4"/>
   <sheetViews>
@@ -2949,7 +3836,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G3"/>
   <sheetViews>
@@ -3042,7 +3929,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G3"/>
   <sheetViews>
@@ -3135,7 +4022,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I3"/>
   <sheetViews>
@@ -3232,7 +4119,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -3304,148 +4191,4 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I5"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
-  <cols>
-    <col min="1" max="1" width="51.375" style="10" customWidth="1"/>
-    <col min="2" max="2" width="17.125" style="10" customWidth="1"/>
-    <col min="3" max="3" width="20.875" style="10" customWidth="1"/>
-    <col min="4" max="4" width="63" style="10" customWidth="1"/>
-    <col min="5" max="5" width="30.375" style="10" customWidth="1"/>
-    <col min="6" max="6" width="34.875" style="10" customWidth="1"/>
-    <col min="7" max="7" width="56.5" style="10" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="10"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="15"/>
-      <c r="I1" s="11"/>
-    </row>
-    <row r="2" spans="1:9" ht="128.25">
-      <c r="A2" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="G2" s="16" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="128.25">
-      <c r="A3" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="F3" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="G3" s="16" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="128.25">
-      <c r="A4" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="F4" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="G4" s="16" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="128.25">
-      <c r="A5" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="E5" s="17" t="s">
-        <v>130</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="G5" s="16" t="s">
-        <v>22</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
-</worksheet>
 </file>
--- a/trunk/Doc/电车管理接口说明.xlsx
+++ b/trunk/Doc/电车管理接口说明.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715" tabRatio="695" firstSheet="1" activeTab="2"/>
@@ -20,12 +20,12 @@
     <sheet name="文件图片" sheetId="9" r:id="rId11"/>
     <sheet name="说明" sheetId="11" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="138">
   <si>
     <t>功能说明</t>
   </si>
@@ -1931,9 +1931,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TS_ServiceNewHandler</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">查找信息，可以根据不同的条件查找
 </t>
@@ -2577,6 +2574,14 @@
       </rPr>
       <t>是否删除</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TS_ServiceNewHandler</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TS_ServiceNewHandler</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3554,8 +3559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3593,27 +3598,27 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="409.5" customHeight="1">
+    <row r="2" spans="1:7" ht="222" customHeight="1">
       <c r="A2" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>94</v>
       </c>
       <c r="D2" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="G2" s="16" t="s">
         <v>135</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="G2" s="16" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="144.75" customHeight="1">
@@ -3621,7 +3626,7 @@
         <v>15</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>19</v>
@@ -3648,7 +3653,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="D3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3841,7 +3846,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/trunk/Doc/电车管理接口说明.xlsx
+++ b/trunk/Doc/电车管理接口说明.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715" tabRatio="695" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715" tabRatio="695" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="用户操作" sheetId="2" r:id="rId1"/>
@@ -20,12 +20,12 @@
     <sheet name="文件图片" sheetId="9" r:id="rId11"/>
     <sheet name="说明" sheetId="11" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="161">
   <si>
     <t>功能说明</t>
   </si>
@@ -111,59 +111,6 @@
   </si>
   <si>
     <t>Register</t>
-  </si>
-  <si>
-    <r>
-      <t>{
-  "Code": -13,
-  "Msg": "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>用户已经存在</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>",
-  "Data": ""
-}{
-  "Code": 11,
-  "Msg": "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>注册成功</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>",
-  "Data": "0c3c6089-1272-4e42-9799-01d50003cefe"
-}</t>
-    </r>
   </si>
   <si>
     <t>update</t>
@@ -904,199 +851,6 @@
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> context.Request.Files</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>BtyeString Base64</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">字节流
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">ToId </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">所属对象的主键
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">ShowName </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">显示用的名称
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">FileName </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>文件名</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-SourceTable </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>来源表的名称，如</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>农资的（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Supply</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">）
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">FileType </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>文件类型</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> .png </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>。。。。
-附加文件</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">  context.Request.Files
-</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2582,6 +2336,413 @@
   </si>
   <si>
     <t>TS_ServiceNewHandler</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{
+  "Code": -13,
+  "Msg": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>用户已经存在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>",
+  "Data": ""
+}{
+  "Code": 1,
+  "Msg": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>注册成功</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>",
+  "Data": "0c3c6089-1272-4e42-9799-01d50003cefe"
+}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TS_TransactionHandler</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加、发布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>add</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{"jsonEntity":{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>实体</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>json},"action":"add"}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{
+  "Code": 11,
+  "Msg": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>添加成功</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>",
+  "Data": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>返回的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Id"
+}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">实体字段参考数据库说明{"Id":"","Title":"","TrueName":"","ImageUrl":"","Brand":"","Phone":"","Details":"","Price":"","Types":"","Category":"","ProvinceCode":"","CityCode":"","AreaCode":"","Address":"","CallCount":"","Praises":"","Clicks":"","CreateManId":"","CreateTime":"","UpdateTime":"","Longitude":"","Latitude":"","States":"","isValid":"","isDeleted":""}
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实体字段参考数据库说明
+{"Id":"","Title":"","TrueName":"","ImageUrl":"","Brand":"","Phone":"","Details":"","Price":"","Types":"","Category":"","ProvinceCode":"","CityCode":"","AreaCode":"","Address":"","CallCount":"","Praises":"","Clicks":"","CreateManId":"","CreateTime":"","UpdateTime":"","Longitude":"","Latitude":"","States":"","isValid":"","isDeleted":""}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击量加1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点赞加1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>呼叫加1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TS_ServiceNewHandler</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PraiseCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CallCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"jsonEntity":{"Id":""},"action":"CallCount"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"jsonEntity":{"Id":""},"action":"PraiseCount"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ClickCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"jsonEntity":{"Id":""},"action":"ClickCount"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取市所有的区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">ToId </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">所属对象的主键
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">ShowName </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">显示用的名称
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">FileName </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>文件名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+SourceTable </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>来源表的名称，如</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>农资的（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Supply</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">FileType </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>文件类型</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> .png </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。。。。
+附加文件</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">  context.Request.Files
+</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">绑定的信息Id
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点赞，点击数，呼叫量统计，交易信息发布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015.12.20</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2991,7 +3152,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3036,19 +3197,19 @@
         <v>7</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G2" s="8" t="s">
         <v>9</v>
@@ -3061,64 +3222,64 @@
         <v>10</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E3" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="F3" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="F3" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>12</v>
+      <c r="G3" s="16" t="s">
+        <v>136</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9" s="10" customFormat="1" ht="144.75" customHeight="1">
       <c r="A4" s="13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C4" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4" s="16" t="s">
         <v>13</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="G4" s="16" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:9" s="10" customFormat="1" ht="144.75" customHeight="1">
       <c r="A5" s="13" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C5" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="D5" s="16" t="s">
-        <v>47</v>
-      </c>
       <c r="E5" s="17" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G5" s="16" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -3132,8 +3293,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3175,94 +3336,94 @@
     </row>
     <row r="2" spans="1:9" ht="128.25">
       <c r="A2" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="C2" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="D2" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="F2" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>114</v>
-      </c>
       <c r="G2" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="128.25">
       <c r="A3" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="D3" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="C3" s="10" t="s">
+      <c r="E3" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="F3" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="D3" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="F3" s="16" t="s">
-        <v>119</v>
-      </c>
       <c r="G3" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="128.25">
       <c r="A4" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="D4" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="C4" s="10" t="s">
+      <c r="E4" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="F4" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="D4" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="F4" s="16" t="s">
-        <v>125</v>
-      </c>
       <c r="G4" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="128.25">
       <c r="A5" s="13" t="s">
-        <v>111</v>
+        <v>156</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C5" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="D5" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="D5" s="10" t="s">
-        <v>129</v>
-      </c>
       <c r="E5" s="17" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G5" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -3277,7 +3438,7 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3319,88 +3480,88 @@
     </row>
     <row r="2" spans="1:9" ht="128.25">
       <c r="A2" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="C2" s="10" t="s">
+      <c r="D2" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="10" t="s">
-        <v>33</v>
-      </c>
       <c r="E2" s="17" t="s">
-        <v>30</v>
+        <v>158</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="128.25">
       <c r="A3" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="D3" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="E3" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="F3" s="16" t="s">
-        <v>82</v>
-      </c>
       <c r="G3" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="128.25">
       <c r="A4" s="13" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C4" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="16" t="s">
-        <v>41</v>
-      </c>
       <c r="E4" s="16" t="s">
-        <v>42</v>
+        <v>157</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G4" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="B5" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="C5" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="E5" s="10" t="s">
         <v>90</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -3415,23 +3576,24 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I39" sqref="I39:I41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
+    <col min="3" max="3" width="63" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="13" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C1" s="10"/>
       <c r="D1" s="10"/>
@@ -3441,33 +3603,44 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>110</v>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="10" customFormat="1">
+      <c r="A4" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>159</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3507,45 +3680,102 @@
     </row>
     <row r="2" spans="1:7" s="10" customFormat="1" ht="288.75" customHeight="1">
       <c r="A2" s="17" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="144.75" customHeight="1">
       <c r="A3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="8" t="s">
+      <c r="G3" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>18</v>
+    </row>
+    <row r="4" spans="1:7" s="10" customFormat="1" ht="25.5" customHeight="1">
+      <c r="A4" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="10" customFormat="1" ht="27" customHeight="1">
+      <c r="A5" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="10" customFormat="1">
+      <c r="A6" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -3557,10 +3787,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3600,45 +3830,102 @@
     </row>
     <row r="2" spans="1:7" ht="222" customHeight="1">
       <c r="A2" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="F2" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="D2" s="16" t="s">
+      <c r="G2" s="16" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="29.25" customHeight="1">
+      <c r="A3" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="25.5" customHeight="1">
+      <c r="A4" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="E2" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="G2" s="16" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="144.75" customHeight="1">
-      <c r="A3" s="13" t="s">
+      <c r="C4" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="E4" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="16" t="s">
+      <c r="G4" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="16" t="s">
-        <v>18</v>
+    </row>
+    <row r="5" spans="1:7" ht="27" customHeight="1">
+      <c r="A5" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -3650,10 +3937,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D3" sqref="A3:XFD3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3693,45 +3980,102 @@
     </row>
     <row r="2" spans="1:7" ht="288.75" customHeight="1">
       <c r="A2" s="17" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="144.75" customHeight="1">
       <c r="A3" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="16" t="s">
+      <c r="G3" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="16" t="s">
-        <v>18</v>
+    </row>
+    <row r="4" spans="1:7" ht="25.5" customHeight="1">
+      <c r="A4" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="27" customHeight="1">
+      <c r="A5" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -3743,10 +4087,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3786,53 +4130,103 @@
     </row>
     <row r="2" spans="1:7" ht="288.75" customHeight="1">
       <c r="A2" s="17" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="144.75" customHeight="1">
       <c r="A3" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="16" t="s">
+      <c r="G3" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="16" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="133.5" customHeight="1">
-      <c r="A4" s="17"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
+    </row>
+    <row r="4" spans="1:7" ht="25.5" customHeight="1">
+      <c r="A4" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="27" customHeight="1">
+      <c r="A5" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>155</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3843,10 +4237,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3886,46 +4280,72 @@
     </row>
     <row r="2" spans="1:7" ht="129.75" customHeight="1">
       <c r="A2" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="C2" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>77</v>
-      </c>
       <c r="E2" s="17" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="144.75" customHeight="1">
       <c r="A3" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="16" t="s">
+      <c r="G3" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="16" t="s">
-        <v>18</v>
-      </c>
+    </row>
+    <row r="4" spans="1:7" ht="27" customHeight="1">
+      <c r="A4" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="11.25" customHeight="1">
+      <c r="A5" s="13"/>
+      <c r="B5" s="9"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="17"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3936,10 +4356,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3979,45 +4399,142 @@
     </row>
     <row r="2" spans="1:7" ht="288.75" customHeight="1">
       <c r="A2" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>95</v>
-      </c>
       <c r="F2" s="16" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="144.75" customHeight="1">
       <c r="A3" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="16" t="s">
+      <c r="G3" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="16" t="s">
-        <v>18</v>
+    </row>
+    <row r="4" spans="1:7" ht="176.25">
+      <c r="A4" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="144.75" customHeight="1">
+      <c r="A5" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="25.5" customHeight="1">
+      <c r="A6" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="27" customHeight="1">
+      <c r="A7" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -4073,48 +4590,48 @@
     </row>
     <row r="2" spans="1:9" s="2" customFormat="1" ht="149.25" customHeight="1">
       <c r="A2" s="13" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="128.25">
       <c r="A3" s="10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C3" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="D3" s="16" t="s">
-        <v>66</v>
-      </c>
       <c r="E3" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="G3" s="16" t="s">
         <v>67</v>
-      </c>
-      <c r="F3" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="G3" s="16" t="s">
-        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -4169,25 +4686,25 @@
     </row>
     <row r="2" spans="1:9" ht="142.5">
       <c r="A2" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="C2" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="D2" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" s="16" t="s">
+      <c r="G2" s="16" t="s">
         <v>27</v>
-      </c>
-      <c r="G2" s="16" t="s">
-        <v>28</v>
       </c>
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>

--- a/trunk/Doc/电车管理接口说明.xlsx
+++ b/trunk/Doc/电车管理接口说明.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715" tabRatio="695" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715" tabRatio="863" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="用户操作" sheetId="2" r:id="rId1"/>
@@ -15,17 +15,18 @@
     <sheet name="车辆" sheetId="14" r:id="rId6"/>
     <sheet name="交易信息（车辆，物品等）" sheetId="15" r:id="rId7"/>
     <sheet name="类别获取" sheetId="3" r:id="rId8"/>
-    <sheet name="android版本更新" sheetId="8" r:id="rId9"/>
-    <sheet name="省城市区" sheetId="16" r:id="rId10"/>
-    <sheet name="文件图片" sheetId="9" r:id="rId11"/>
-    <sheet name="说明" sheetId="11" r:id="rId12"/>
+    <sheet name="广告" sheetId="18" r:id="rId9"/>
+    <sheet name="android版本更新" sheetId="8" r:id="rId10"/>
+    <sheet name="省城市区" sheetId="16" r:id="rId11"/>
+    <sheet name="文件图片" sheetId="9" r:id="rId12"/>
+    <sheet name="说明" sheetId="11" r:id="rId13"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="166">
   <si>
     <t>功能说明</t>
   </si>
@@ -1581,10 +1582,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> {"jsonEntity":{"Category":"07","CityCode":"4502","Longitude":"110.22587","Latitude":"25.272585"},"pageIndex":"1","pageSize":"20","action":"GetByCategory"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> /httpSever/TS_ServiceHandler.ashx?json={"jsonEntity":{"Category":"07","CityCode":"4502","Longitude":"110.22587","Latitude":"25.272585"},"pageIndex":"1","pageSize":"20","action":"GetByCategory"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2743,6 +2740,32 @@
   </si>
   <si>
     <t>2015.12.20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AdvertisingHandler</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetByCategory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> {"jsonEntity":{"Category":"07","CityCode":"4502","Longitude":"110.22587","Latitude":"25.272585"},"pageIndex":"1","pageSize":"20","action":"GetByCategory"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"jsonEntity":{"Category":"0201"},"action":"GetByCategory"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/httpSever/AdvertisingHandler.ashx?
+json={"jsonEntity":{"Category":"0201"},"action":"GetByCategory"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">类别Category 位置的类别（首页是0201）
+</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3237,7 +3260,7 @@
         <v>56</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
@@ -3290,6 +3313,80 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="11.125" customWidth="1"/>
+    <col min="2" max="2" width="17.125" customWidth="1"/>
+    <col min="3" max="3" width="13.625" customWidth="1"/>
+    <col min="4" max="4" width="51.75" customWidth="1"/>
+    <col min="6" max="6" width="34.875" customWidth="1"/>
+    <col min="7" max="7" width="56.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="15"/>
+      <c r="I1" s="11"/>
+    </row>
+    <row r="2" spans="1:9" ht="142.5">
+      <c r="A2" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I5"/>
   <sheetViews>
@@ -3336,22 +3433,22 @@
     </row>
     <row r="2" spans="1:9" ht="128.25">
       <c r="A2" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="C2" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="D2" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="F2" s="16" t="s">
         <v>111</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>112</v>
       </c>
       <c r="G2" s="16" t="s">
         <v>21</v>
@@ -3359,22 +3456,22 @@
     </row>
     <row r="3" spans="1:9" ht="128.25">
       <c r="A3" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="C3" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="C3" s="10" t="s">
+      <c r="D3" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="E3" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="F3" s="16" t="s">
         <v>116</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="F3" s="16" t="s">
-        <v>117</v>
       </c>
       <c r="G3" s="16" t="s">
         <v>21</v>
@@ -3382,22 +3479,22 @@
     </row>
     <row r="4" spans="1:9" ht="128.25">
       <c r="A4" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="C4" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="C4" s="10" t="s">
+      <c r="D4" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="E4" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="F4" s="16" t="s">
         <v>122</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>124</v>
-      </c>
-      <c r="F4" s="16" t="s">
-        <v>123</v>
       </c>
       <c r="G4" s="16" t="s">
         <v>21</v>
@@ -3405,22 +3502,22 @@
     </row>
     <row r="5" spans="1:9" ht="128.25">
       <c r="A5" s="13" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C5" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="F5" s="16" t="s">
         <v>125</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="E5" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>126</v>
       </c>
       <c r="G5" s="16" t="s">
         <v>21</v>
@@ -3433,7 +3530,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I8"/>
   <sheetViews>
@@ -3492,7 +3589,7 @@
         <v>32</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F2" s="16" t="s">
         <v>79</v>
@@ -3538,7 +3635,7 @@
         <v>40</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F4" s="16" t="s">
         <v>81</v>
@@ -3574,12 +3671,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3603,7 +3700,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>52</v>
@@ -3611,21 +3708,21 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="B3" s="10" t="s">
         <v>107</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="10" customFormat="1">
       <c r="A4" s="10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>52</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -3723,16 +3820,16 @@
     </row>
     <row r="4" spans="1:7" s="10" customFormat="1" ht="25.5" customHeight="1">
       <c r="A4" s="13" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>47</v>
       </c>
       <c r="C4" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="D4" s="16" t="s">
         <v>153</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>154</v>
       </c>
       <c r="E4" s="17" t="s">
         <v>15</v>
@@ -3743,16 +3840,16 @@
     </row>
     <row r="5" spans="1:7" s="10" customFormat="1" ht="27" customHeight="1">
       <c r="A5" s="13" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>47</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E5" s="17" t="s">
         <v>15</v>
@@ -3763,19 +3860,19 @@
     </row>
     <row r="6" spans="1:7" s="10" customFormat="1">
       <c r="A6" s="13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>47</v>
       </c>
       <c r="C6" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="D6" s="16" t="s">
         <v>150</v>
       </c>
-      <c r="D6" s="16" t="s">
-        <v>151</v>
-      </c>
       <c r="E6" s="17" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -3830,25 +3927,25 @@
     </row>
     <row r="2" spans="1:7" ht="222" customHeight="1">
       <c r="A2" s="17" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>92</v>
       </c>
       <c r="D2" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="G2" s="16" t="s">
         <v>132</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>130</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="G2" s="16" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="29.25" customHeight="1">
@@ -3856,7 +3953,7 @@
         <v>14</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>18</v>
@@ -3873,16 +3970,16 @@
     </row>
     <row r="4" spans="1:7" ht="25.5" customHeight="1">
       <c r="A4" s="13" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C4" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="D4" s="16" t="s">
         <v>153</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>154</v>
       </c>
       <c r="E4" s="17" t="s">
         <v>15</v>
@@ -3893,16 +3990,16 @@
     </row>
     <row r="5" spans="1:7" ht="27" customHeight="1">
       <c r="A5" s="13" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E5" s="17" t="s">
         <v>15</v>
@@ -3913,19 +4010,19 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="B6" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>148</v>
-      </c>
       <c r="C6" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="D6" s="16" t="s">
         <v>150</v>
       </c>
-      <c r="D6" s="16" t="s">
-        <v>151</v>
-      </c>
       <c r="E6" s="17" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -3940,7 +4037,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3986,16 +4083,16 @@
         <v>69</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>92</v>
+        <v>161</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>104</v>
+        <v>162</v>
       </c>
       <c r="E2" s="17" t="s">
         <v>95</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G2" s="16" t="s">
         <v>19</v>
@@ -4023,16 +4120,16 @@
     </row>
     <row r="4" spans="1:7" ht="25.5" customHeight="1">
       <c r="A4" s="13" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>101</v>
       </c>
       <c r="C4" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="D4" s="16" t="s">
         <v>153</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>154</v>
       </c>
       <c r="E4" s="17" t="s">
         <v>15</v>
@@ -4043,16 +4140,16 @@
     </row>
     <row r="5" spans="1:7" ht="27" customHeight="1">
       <c r="A5" s="13" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>101</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E5" s="17" t="s">
         <v>15</v>
@@ -4063,19 +4160,19 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>101</v>
       </c>
       <c r="C6" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="D6" s="16" t="s">
         <v>150</v>
       </c>
-      <c r="D6" s="16" t="s">
-        <v>151</v>
-      </c>
       <c r="E6" s="17" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -4173,16 +4270,16 @@
     </row>
     <row r="4" spans="1:7" ht="25.5" customHeight="1">
       <c r="A4" s="13" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>94</v>
       </c>
       <c r="C4" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="D4" s="16" t="s">
         <v>153</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>154</v>
       </c>
       <c r="E4" s="17" t="s">
         <v>15</v>
@@ -4193,16 +4290,16 @@
     </row>
     <row r="5" spans="1:7" ht="27" customHeight="1">
       <c r="A5" s="13" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>94</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E5" s="17" t="s">
         <v>15</v>
@@ -4213,19 +4310,19 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>94</v>
       </c>
       <c r="C6" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="D6" s="16" t="s">
         <v>150</v>
       </c>
-      <c r="D6" s="16" t="s">
-        <v>151</v>
-      </c>
       <c r="E6" s="17" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -4323,16 +4420,16 @@
     </row>
     <row r="4" spans="1:7" ht="27" customHeight="1">
       <c r="A4" s="13" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>72</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E4" s="17" t="s">
         <v>15</v>
@@ -4425,7 +4522,7 @@
         <v>14</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>18</v>
@@ -4442,27 +4539,27 @@
     </row>
     <row r="4" spans="1:7" ht="176.25">
       <c r="A4" s="13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>77</v>
       </c>
       <c r="C4" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="D4" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="E4" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="G4" s="16" t="s">
         <v>140</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="G4" s="16" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="144.75" customHeight="1">
       <c r="A5" s="13" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>77</v>
@@ -4474,7 +4571,7 @@
         <v>82</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G5" s="16" t="s">
         <v>13</v>
@@ -4482,16 +4579,16 @@
     </row>
     <row r="6" spans="1:7" ht="25.5" customHeight="1">
       <c r="A6" s="13" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>77</v>
       </c>
       <c r="C6" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="D6" s="16" t="s">
         <v>153</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>154</v>
       </c>
       <c r="E6" s="17" t="s">
         <v>15</v>
@@ -4502,16 +4599,16 @@
     </row>
     <row r="7" spans="1:7" ht="27" customHeight="1">
       <c r="A7" s="13" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>77</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E7" s="17" t="s">
         <v>15</v>
@@ -4522,19 +4619,19 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>77</v>
       </c>
       <c r="C8" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="D8" s="16" t="s">
         <v>150</v>
       </c>
-      <c r="D8" s="16" t="s">
-        <v>151</v>
-      </c>
       <c r="E8" s="17" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -4645,18 +4742,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="11.125" customWidth="1"/>
-    <col min="2" max="2" width="17.125" customWidth="1"/>
-    <col min="3" max="3" width="13.625" customWidth="1"/>
-    <col min="4" max="4" width="51.75" customWidth="1"/>
-    <col min="6" max="6" width="34.875" customWidth="1"/>
-    <col min="7" max="7" width="56.5" customWidth="1"/>
+    <col min="1" max="1" width="11.125" style="10" customWidth="1"/>
+    <col min="2" max="2" width="17.125" style="10" customWidth="1"/>
+    <col min="3" max="3" width="13.625" style="10" customWidth="1"/>
+    <col min="4" max="4" width="51.75" style="10" customWidth="1"/>
+    <col min="5" max="5" width="25.375" style="10" customWidth="1"/>
+    <col min="6" max="6" width="34.875" style="10" customWidth="1"/>
+    <col min="7" max="7" width="56.5" style="10" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -4689,25 +4788,23 @@
         <v>23</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>24</v>
+        <v>160</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>25</v>
+        <v>92</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>28</v>
+        <v>163</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>29</v>
+        <v>165</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>26</v>
+        <v>164</v>
       </c>
       <c r="G2" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/trunk/Doc/电车管理接口说明.xlsx
+++ b/trunk/Doc/电车管理接口说明.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715" tabRatio="863" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715" tabRatio="863" firstSheet="2" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="用户操作" sheetId="2" r:id="rId1"/>
@@ -20,13 +20,14 @@
     <sheet name="省城市区" sheetId="16" r:id="rId11"/>
     <sheet name="文件图片" sheetId="9" r:id="rId12"/>
     <sheet name="说明" sheetId="11" r:id="rId13"/>
+    <sheet name="评论" sheetId="19" r:id="rId14"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="201">
   <si>
     <t>功能说明</t>
   </si>
@@ -2739,10 +2740,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2015.12.20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>AdvertisingHandler</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2766,6 +2763,383 @@
   <si>
     <t xml:space="preserve">类别Category 位置的类别（首页是0201）
 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015.12.20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016.01.11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ld</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加、发布</t>
+  </si>
+  <si>
+    <t>CommentHandler</t>
+  </si>
+  <si>
+    <t>add</t>
+  </si>
+  <si>
+    <t>实体字段参考数据库说明
+{"Id":"","UserId":"","PostId":"","CommentId":"","ToId":"","Category":"","Author":"","Details":"","AddTime":"","States":""}</t>
+  </si>
+  <si>
+    <r>
+      <t>{
+  "Code": 11,
+  "Msg": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>添加成功</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>",
+  "Data": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>返回的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Id"
+}</t>
+    </r>
+  </si>
+  <si>
+    <t>根据文章Id获取列表</t>
+  </si>
+  <si>
+    <t>GetByPostId</t>
+  </si>
+  <si>
+    <t>{"jsonEntity":{"PostId":"322740ff-66b7-49cb-8c31-
+0012fd1a9c92"},"action":"GetByPostId"}</t>
+  </si>
+  <si>
+    <t>PostId所属的文章Id</t>
+  </si>
+  <si>
+    <r>
+      <t>{
+  "Code": 11,
+  "Msg": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>获取成功</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>",
+  "Data": "[]"
+}
+{
+  "Code": -13,
+  "Msg": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>数据不存在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">",
+  "Data": ""
+}
+</t>
+    </r>
+  </si>
+  <si>
+    <t>删除</t>
+  </si>
+  <si>
+    <t>delete</t>
+  </si>
+  <si>
+    <t>{"jsonEntity":{"Id":""},"action":"delete"}</t>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <r>
+      <t>{
+  "Code": 11,
+  "Msg": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>删除成功</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>",
+  "Data": ""
+}
+{
+  "Code": -13,
+  "Msg": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>删除失败</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">",
+  "Data": ""
+}
+</t>
+    </r>
+  </si>
+  <si>
+    <t>GetByUserId</t>
+  </si>
+  <si>
+    <t>{"jsonEntity":{"UserId":"1a9f2358-b945-41ec-9e79-e1aae159756f"},"action":"GetByUserId"}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> /httpSever/CommentHandler.ashx?json={"jsonEntity":{"UserId":"1a9f2358-b945-41ec-9e79-e1aae159756f"},"action":"GetByUserId"}</t>
+  </si>
+  <si>
+    <r>
+      <t>{
+  "Code": 11,
+  "Msg": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>获取成功</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>",
+  "Data": "[]"
+}
+{
+  "Code": 0,
+  "Msg": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>没有数据</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>",
+  "Data": "[]"
+}</t>
+    </r>
+  </si>
+  <si>
+    <t>根据文章Id
+分页获取数据</t>
+  </si>
+  <si>
+    <t>GetByPostIdPage</t>
+  </si>
+  <si>
+    <t>{"jsonEntity":{"PostId":"322740ff-66b7-49cb-8c31-
+0012fd1a9c92"},"pageIndex":"1","pageSize":"20","action":"GetByPostIdPage"}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+PostId所属的文章Id
+pageIndex：页数
+pageSize：每页数量</t>
+  </si>
+  <si>
+    <t>/httpSever/CommentHandler.ashx?json={"jsonEntity":{"PostId":"322740ff-66b7-49cb-8c31-
+0012fd1a9c92"},"pageIndex":"1","pageSize":"20","action":"GetByPostIdPage"}</t>
+  </si>
+  <si>
+    <r>
+      <t>{"jsonEntity":{"Author":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>小帅</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","UserId":"d7531c46-07ee-4318-8e3a-23ccc13e5880","PostId":"d6807c66-c4fb-4350-83fd-afd19cb82693","Details":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>师傅很好</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","IsHaveImg":"true","Category":"08"},"action":"add"}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据用户Id获取已发表信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据用户Id
+分页获取数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetByUserIdPage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">UserId:用户Id
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+UserId:用户Id
+pageIndex：页数
+pageSize：每页数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"jsonEntity":{"UserId":""},"pageIndex":"1","pageSize":"20","action":"GetByUserIdPage"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2841,7 +3215,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2870,20 +3244,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -3673,10 +4052,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3716,19 +4095,212 @@
     </row>
     <row r="4" spans="1:7" s="10" customFormat="1">
       <c r="A4" s="10" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>52</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>158</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>168</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="13.75" customWidth="1"/>
+    <col min="2" max="2" width="24.625" customWidth="1"/>
+    <col min="3" max="3" width="22.25" customWidth="1"/>
+    <col min="4" max="4" width="52.25" customWidth="1"/>
+    <col min="5" max="5" width="18.75" customWidth="1"/>
+    <col min="6" max="6" width="24.125" customWidth="1"/>
+    <col min="7" max="7" width="57.5" customWidth="1"/>
+    <col min="8" max="8" width="14.75" customWidth="1"/>
+    <col min="9" max="9" width="17" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="80.25" customHeight="1">
+      <c r="A2" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>193</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="F2" s="23" t="s">
+        <v>194</v>
+      </c>
+      <c r="G2" s="23" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="72.75" customHeight="1">
+      <c r="A3" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="F3" s="18"/>
+      <c r="G3" s="23" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="87.75" customHeight="1">
+      <c r="A4" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>181</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="F4" s="18"/>
+      <c r="G4" s="23" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="81" customHeight="1">
+      <c r="A5" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>185</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="F5" s="23" t="s">
+        <v>186</v>
+      </c>
+      <c r="G5" s="23" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="93" customHeight="1">
+      <c r="A6" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>190</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>191</v>
+      </c>
+      <c r="F6" s="23" t="s">
+        <v>192</v>
+      </c>
+      <c r="G6" s="23" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="18" customFormat="1" ht="93" customHeight="1">
+      <c r="A7" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>197</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23" t="s">
+        <v>187</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -4083,10 +4655,10 @@
         <v>69</v>
       </c>
       <c r="C2" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="D2" s="16" t="s">
         <v>161</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>162</v>
       </c>
       <c r="E2" s="17" t="s">
         <v>95</v>
@@ -4742,7 +5314,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -4788,19 +5360,19 @@
         <v>23</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>92</v>
       </c>
       <c r="D2" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="F2" s="16" t="s">
         <v>163</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>165</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>164</v>
       </c>
       <c r="G2" s="16" t="s">
         <v>27</v>
